--- a/analyse-prix-composants.xlsx
+++ b/analyse-prix-composants.xlsx
@@ -8,6 +8,10 @@
   <sheets>
     <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuille1!$A:$O</definedName>
+    <definedName name="Print_Titles" localSheetId="0">Feuille1!$1:$1</definedName>
+  </definedNames>
   <calcPr/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
@@ -16,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
   <si>
     <t>Type</t>
   </si>
@@ -61,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">25 janv 2026</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
   <si>
     <t>RAM</t>
@@ -958,7 +965,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -981,6 +988,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="5"/>
         <bgColor indexed="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.049989318521683403"/>
+        <bgColor theme="0" tint="-0.049989318521683403"/>
       </patternFill>
     </fill>
     <fill>
@@ -1008,7 +1021,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1031,6 +1044,7 @@
     <xf fontId="5" fillId="2" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1052,13 +1066,28 @@
     <xf fontId="2" fillId="3" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="5" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="2" fillId="5" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="6" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="6" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="2" fillId="5" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="7" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
@@ -1559,8 +1588,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="1"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1629,60 +1662,63 @@
       <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="S1" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" ht="36">
-      <c r="A2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="4">
         <v>284</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="L2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="M2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="N2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>26</v>
       </c>
+      <c r="S2" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" ht="36">
-      <c r="A3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>27</v>
+      <c r="A3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="14">
+      <c r="D3" s="15">
         <v>200.47999999999999</v>
       </c>
       <c r="E3" s="4"/>
@@ -1691,83 +1727,83 @@
         <v>686</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="J3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="L3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="M3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>34</v>
       </c>
+      <c r="O3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" ht="36">
-      <c r="A4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="14">
+      <c r="A4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="15">
         <v>284.13</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18">
         <v>403.11000000000001</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="I4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="J4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="L4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="M4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="N4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="O4" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="S4" s="14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" ht="36">
-      <c r="A5" s="8" t="s">
-        <v>15</v>
+      <c r="A5" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1776,124 +1812,124 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="J5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="L5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="M5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="N5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="O5" s="13" t="s">
         <v>53</v>
       </c>
+      <c r="S5" s="14" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" ht="18">
-      <c r="A6" s="8" t="s">
-        <v>54</v>
+      <c r="A6" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="14" t="s">
         <v>59</v>
       </c>
+      <c r="J6" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="K6" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="S6" s="13" t="s">
         <v>63</v>
       </c>
+      <c r="S6" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" ht="36">
-      <c r="A7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="14" t="s">
+      <c r="B7" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="H7" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="I7" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="J7" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="K7" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="L7" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="M7" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="S7" s="13" t="s">
+      <c r="N7" s="18" t="s">
         <v>75</v>
       </c>
+      <c r="O7" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="8" ht="18">
-      <c r="A8" s="8" t="s">
-        <v>64</v>
+      <c r="A8" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1903,33 +1939,33 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="O8" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="S8" s="13" t="s">
+      <c r="O8" s="13" t="s">
         <v>83</v>
       </c>
+      <c r="S8" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="9" ht="18">
-      <c r="A9" s="8" t="s">
-        <v>64</v>
+      <c r="A9" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1939,75 +1975,75 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="S9" s="13" t="s">
         <v>91</v>
       </c>
+      <c r="S9" s="14" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="10" ht="18">
-      <c r="A10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
+      <c r="A10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="S10" s="13" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18" t="s">
         <v>94</v>
       </c>
+      <c r="H10" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="11" ht="36">
-      <c r="A11" s="8" t="s">
-        <v>64</v>
+      <c r="A11" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2018,418 +2054,418 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="O11" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="O11" s="13" t="s">
         <v>100</v>
       </c>
+      <c r="S11" s="14" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="12" ht="18">
-      <c r="A12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
+      <c r="A12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="S12" s="13" t="s">
+      <c r="G12" s="18" t="s">
         <v>104</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="13" ht="18">
       <c r="A13" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="14" t="s">
-        <v>107</v>
+      <c r="G13" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="N13" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="S13" s="13" t="s">
+      <c r="O13" s="15" t="s">
         <v>111</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="14" ht="18">
       <c r="A14" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="O14" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="K14" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="S14" s="13" t="s">
-        <v>116</v>
+      <c r="S14" s="14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15" ht="18">
-      <c r="A15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
+      <c r="A15" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" s="13" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18" t="s">
         <v>119</v>
       </c>
+      <c r="H15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="16" ht="36">
-      <c r="A16" s="8" t="s">
-        <v>120</v>
+      <c r="A16" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" ht="18">
-      <c r="A17" s="8" t="s">
-        <v>124</v>
+      <c r="A17" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="14" t="s">
-        <v>126</v>
+      <c r="G17" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="O17" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="S17" s="13" t="s">
+      <c r="O17" s="13" t="s">
         <v>132</v>
       </c>
+      <c r="S17" s="14" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="18" ht="18">
-      <c r="A18" s="8" t="s">
-        <v>124</v>
+      <c r="A18" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="14" t="s">
-        <v>134</v>
+      <c r="G18" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L18" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="M18" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="N18" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="O18" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="S18" s="13" t="s">
+      <c r="O18" s="13" t="s">
         <v>140</v>
       </c>
+      <c r="S18" s="14" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="19" ht="36">
-      <c r="A19" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
+      <c r="B19" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="G19" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="H19" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="I19" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="J19" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="K19" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="L19" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="M19" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="N19" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="S19" s="13" t="s">
+      <c r="O19" s="18" t="s">
         <v>154</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="20" ht="18">
       <c r="A20" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="14" t="s">
-        <v>156</v>
+      <c r="D20" s="15" t="s">
+        <v>157</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="J20" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="J20" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="K20" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="L20" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="M20" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="O20" s="15" t="s">
+      <c r="N20" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="S20" s="13" t="s">
+      <c r="O20" s="20" t="s">
         <v>165</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="21" ht="18">
       <c r="A21" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2440,64 +2476,64 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="M21" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="N21" s="12" t="s">
+      <c r="M21" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="O21" s="12" t="s">
+      <c r="N21" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="S21" s="13" t="s">
+      <c r="O21" s="13" t="s">
         <v>171</v>
       </c>
+      <c r="S21" s="14" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="22" ht="18">
-      <c r="A22" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4" t="s">
+      <c r="A22" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="L22" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="M22" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="N22" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="S22" s="13" t="s">
+      <c r="O22" s="18" t="s">
         <v>178</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="23" ht="18">
       <c r="A23" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2508,30 +2544,30 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="N23" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="O23" s="12" t="s">
+      <c r="N23" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="S23" s="13" t="s">
+      <c r="O23" s="13" t="s">
         <v>184</v>
+      </c>
+      <c r="S23" s="14" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="24" ht="18">
       <c r="A24" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2543,59 +2579,59 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="S24" s="13" t="s">
-        <v>188</v>
+        <v>182</v>
+      </c>
+      <c r="S24" s="14" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="25" ht="18">
-      <c r="A25" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4" t="s">
+      <c r="A25" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="M25" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="O25" s="4" t="s">
+      <c r="N25" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="S25" s="13" t="s">
+      <c r="O25" s="18" t="s">
         <v>194</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="26" ht="18">
       <c r="A26" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2608,24 +2644,24 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="S26" s="13" t="s">
         <v>199</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="27" ht="18">
       <c r="A27" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2639,668 +2675,668 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
-      <c r="O27" s="16" t="s">
-        <v>201</v>
+      <c r="O27" s="21" t="s">
+        <v>202</v>
       </c>
       <c r="R27" s="1"/>
-      <c r="S27" s="13" t="s">
-        <v>202</v>
+      <c r="S27" s="14" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="28" ht="18">
-      <c r="A28" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="16" t="s">
+      <c r="A28" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>204</v>
       </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="22" t="s">
+        <v>205</v>
+      </c>
       <c r="R28" s="1"/>
-      <c r="S28" s="13" t="s">
-        <v>205</v>
+      <c r="S28" s="14" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="29" ht="18">
-      <c r="A29" s="8" t="s">
-        <v>206</v>
+      <c r="A29" s="9" t="s">
+        <v>207</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="H29" s="12" t="s">
+      <c r="G29" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="H29" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="I29" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="K29" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="N29" s="12"/>
-      <c r="S29" s="13" t="s">
+      <c r="J29" s="13" t="s">
         <v>212</v>
       </c>
+      <c r="K29" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="N29" s="13"/>
+      <c r="S29" s="14" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="30" ht="18">
-      <c r="A30" s="8" t="s">
-        <v>213</v>
+      <c r="A30" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="O30" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="S30" s="13" t="s">
+      <c r="G30" s="15"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13" t="s">
         <v>216</v>
       </c>
+      <c r="O30" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="31" ht="18">
-      <c r="A31" s="8" t="s">
-        <v>213</v>
+      <c r="A31" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="O31" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="S31" s="13" t="s">
-        <v>216</v>
+      <c r="G31" s="15"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="S31" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="32" ht="18">
-      <c r="A32" s="8" t="s">
-        <v>213</v>
+      <c r="A32" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="O32" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="S32" s="13" t="s">
-        <v>216</v>
+      <c r="G32" s="15"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="S32" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="33" ht="18">
-      <c r="A33" s="8" t="s">
-        <v>221</v>
+      <c r="A33" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="O33" s="12" t="s">
+      <c r="G33" s="15"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="S33" s="13" t="s">
-        <v>216</v>
+      <c r="O33" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="S33" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="34" ht="18">
-      <c r="A34" s="8" t="s">
-        <v>225</v>
+      <c r="A34" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="O34" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="S34" s="13" t="s">
-        <v>216</v>
+      <c r="G34" s="15"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="O34" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="S34" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="35" ht="18">
-      <c r="A35" s="8" t="s">
-        <v>228</v>
+      <c r="A35" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
+        <v>231</v>
+      </c>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
     </row>
     <row r="36" ht="18">
       <c r="A36" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="14" t="s">
-        <v>232</v>
+      <c r="G36" s="15" t="s">
+        <v>233</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="S36" s="13" t="s">
         <v>233</v>
       </c>
+      <c r="S36" s="14" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="37" ht="18">
-      <c r="A37" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4" t="s">
+      <c r="B37" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="S37" s="13" t="s">
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18" t="s">
         <v>237</v>
       </c>
+      <c r="H37" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="L37" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="M37" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="O37" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="S37" s="14" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="38" ht="18">
-      <c r="A38" s="8" t="s">
-        <v>238</v>
+      <c r="A38" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="H38" s="14" t="s">
         <v>241</v>
       </c>
+      <c r="H38" s="15" t="s">
+        <v>242</v>
+      </c>
       <c r="I38" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="S38" s="13" t="s">
         <v>246</v>
       </c>
+      <c r="S38" s="14" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="39" ht="18">
-      <c r="A39" s="8" t="s">
-        <v>247</v>
+      <c r="A39" s="9" t="s">
+        <v>248</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="J39" s="14" t="s">
         <v>252</v>
       </c>
+      <c r="J39" s="15" t="s">
+        <v>253</v>
+      </c>
       <c r="K39" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="S39" s="13" t="s">
         <v>255</v>
       </c>
+      <c r="S39" s="14" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="40" ht="18">
-      <c r="A40" s="8" t="s">
-        <v>256</v>
+      <c r="A40" s="9" t="s">
+        <v>257</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="H40" s="14" t="s">
         <v>260</v>
       </c>
+      <c r="H40" s="15" t="s">
+        <v>261</v>
+      </c>
       <c r="I40" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="S40" s="13" t="s">
         <v>267</v>
       </c>
+      <c r="S40" s="14" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="41" ht="54">
-      <c r="A41" s="8" t="s">
-        <v>120</v>
+      <c r="A41" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M41" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="N41" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="O41" s="12" t="s">
-        <v>271</v>
+      <c r="N41" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="O41" s="13" t="s">
+        <v>272</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" ht="18">
-      <c r="A42" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4" t="s">
+      <c r="B42" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="L42" s="4" t="s">
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="H42" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="J42" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="K42" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="L42" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="N42" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="S42" s="13" t="s">
+      <c r="M42" s="18" t="s">
         <v>278</v>
       </c>
+      <c r="N42" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="O42" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="S42" s="14" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="43" ht="18">
-      <c r="A43" s="8" t="s">
-        <v>279</v>
+      <c r="A43" s="9" t="s">
+        <v>280</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="I43" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="J43" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="K43" s="14" t="s">
-        <v>282</v>
+      <c r="I43" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="J43" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>283</v>
       </c>
       <c r="L43" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="N43" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="O43" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="M43" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="N43" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>282</v>
-      </c>
       <c r="S43" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" ht="18">
-      <c r="A44" s="8" t="s">
-        <v>286</v>
+      <c r="A44" s="9" t="s">
+        <v>287</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="S44" s="13" t="s">
         <v>289</v>
       </c>
+      <c r="S44" s="14" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="45" ht="18">
-      <c r="A45" s="8" t="s">
-        <v>206</v>
+      <c r="A45" s="9" t="s">
+        <v>207</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="S45" s="18" t="s">
         <v>292</v>
+      </c>
+      <c r="S45" s="24" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="46" ht="16.5">
@@ -3352,7 +3388,7 @@
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="57" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/analyse-prix-composants.xlsx
+++ b/analyse-prix-composants.xlsx
@@ -10,7 +10,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Feuille1!$A:$O</definedName>
-    <definedName name="Print_Titles" localSheetId="0">Feuille1!$1:$1</definedName>
+    <definedName name="Print_Titles" localSheetId="0">Feuille1!$7:$7</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
@@ -20,7 +20,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
+  <si>
+    <t xml:space="preserve">Le prix des composants IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(c) 2025, 2026 Alexia Gossa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaque samedi sur Twitch, depuis le 6 décembre 2025, on fait le point sur les prix de l'IT en regardant quelques composants.</t>
+  </si>
+  <si>
+    <t>https://www.twitch.tv/alexia_vassiliki</t>
+  </si>
   <si>
     <t>Type</t>
   </si>
@@ -913,7 +925,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -929,6 +941,23 @@
       <sz val="12.000000"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26.000000"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="18.000000"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18.000000"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -1021,7 +1050,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1035,32 +1064,44 @@
     <xf fontId="2" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="2" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="6" fillId="2" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="2" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="7" fillId="2" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="8" fillId="2" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="7" fillId="3" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="10" fillId="3" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf fontId="2" fillId="4" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="11" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1090,7 +1131,7 @@
     <xf fontId="2" fillId="7" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="11" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1593,7 +1634,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="1"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1616,434 +1657,232 @@
     <col min="20" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="33">
+      <c r="A1" s="2"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="N1" s="4"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" ht="23.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" ht="18">
+      <c r="A3" s="2"/>
+      <c r="B3" s="7"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" ht="54">
+      <c r="A4" s="2"/>
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" ht="23.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" ht="16.5">
+      <c r="A6" s="2"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" ht="18">
+      <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="C7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="D7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="E7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="F7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="G7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="H7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="I7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="J7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="K7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="L7" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" ht="36">
-      <c r="A2" s="9" t="s">
+      <c r="M7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="N7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="O7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="4">
+      <c r="S7" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="36">
+      <c r="A8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="4">
         <v>284</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="H8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="36">
+      <c r="A9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" ht="36">
-      <c r="A3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="15">
+      <c r="B9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="19">
         <v>200.47999999999999</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
-        <v>686</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" ht="36">
-      <c r="A4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="15">
-        <v>284.13</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18">
-        <v>403.11000000000001</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" ht="36">
-      <c r="A5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" ht="18">
-      <c r="A6" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" ht="36">
-      <c r="A7" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" ht="18">
-      <c r="A8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" ht="18">
-      <c r="A9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="S9" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" ht="18">
-      <c r="A10" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="O10" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="S10" s="14" t="s">
-        <v>95</v>
+      <c r="G9" s="4">
+        <v>686</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" ht="36">
+      <c r="A10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="19">
+        <v>284.13</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22">
+        <v>403.11000000000001</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S10" s="18" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" ht="36">
-      <c r="A11" s="9" t="s">
-        <v>65</v>
+      <c r="A11" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2051,617 +1890,661 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>101</v>
+      <c r="I11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11" s="18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" ht="18">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="N12" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="O12" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="S12" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" ht="18">
-      <c r="A13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="N13" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="O13" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>112</v>
+      <c r="L12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="S12" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" ht="36">
+      <c r="A13" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="S13" s="18" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14" ht="18">
-      <c r="A14" s="2" t="s">
-        <v>65</v>
+      <c r="A14" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="S14" s="14" t="s">
-        <v>117</v>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O14" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="S14" s="18" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15" ht="18">
-      <c r="A15" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="S15" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" ht="36">
-      <c r="A16" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" ht="18">
-      <c r="A17" s="9" t="s">
-        <v>125</v>
+      <c r="A15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="S15" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" ht="18">
+      <c r="A16" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="S16" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" ht="36">
+      <c r="A17" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="S17" s="14" t="s">
-        <v>133</v>
+        <v>103</v>
+      </c>
+      <c r="O17" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="S17" s="18" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="18" ht="18">
-      <c r="A18" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="O18" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="S18" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" ht="36">
-      <c r="A19" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="L19" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="N19" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="O19" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="S19" s="14" t="s">
-        <v>155</v>
+      <c r="A18" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="S18" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" ht="18">
+      <c r="A19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="S19" s="18" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="20" ht="18">
       <c r="A20" s="2" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="15" t="s">
-        <v>157</v>
-      </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="O20" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="S20" s="14" t="s">
-        <v>166</v>
+        <v>119</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O20" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="S20" s="18" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="21" ht="18">
-      <c r="A21" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="N21" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="O21" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="S21" s="14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" ht="18">
-      <c r="A22" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="M22" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="N22" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="O22" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="S22" s="14" t="s">
-        <v>179</v>
+      <c r="A21" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="S21" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" ht="36">
+      <c r="A22" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="23" ht="18">
-      <c r="A23" s="2" t="s">
-        <v>142</v>
+      <c r="A23" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="G23" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="K23" s="4" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="N23" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="O23" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="S23" s="14" t="s">
-        <v>185</v>
+        <v>134</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="O23" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="S23" s="18" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="24" ht="18">
-      <c r="A24" s="2" t="s">
-        <v>142</v>
+      <c r="A24" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="G24" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="L24" s="4" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="S24" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" ht="18">
-      <c r="A25" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="M25" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="N25" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="O25" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="S25" s="14" t="s">
-        <v>195</v>
+        <v>143</v>
+      </c>
+      <c r="O24" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="S24" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" ht="36">
+      <c r="A25" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="M25" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="N25" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="O25" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="S25" s="18" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="26" ht="18">
       <c r="A26" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="19" t="s">
+        <v>161</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="S26" s="14" t="s">
-        <v>200</v>
+      <c r="G26" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="O26" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="S26" s="18" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="27" ht="18">
       <c r="A27" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2671,720 +2554,914 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="21" t="s">
-        <v>202</v>
+      <c r="K27" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O27" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="R27" s="1"/>
-      <c r="S27" s="14" t="s">
-        <v>203</v>
+      <c r="S27" s="18" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="28" ht="18">
-      <c r="A28" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
+      <c r="A28" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="M28" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="N28" s="22" t="s">
+        <v>181</v>
+      </c>
       <c r="O28" s="22" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="R28" s="1"/>
-      <c r="S28" s="14" t="s">
-        <v>206</v>
+      <c r="S28" s="18" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="29" ht="18">
-      <c r="A29" s="9" t="s">
-        <v>207</v>
+      <c r="A29" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="M29" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="N29" s="13"/>
-      <c r="S29" s="14" t="s">
-        <v>213</v>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="O29" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="S29" s="18" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="30" ht="18">
-      <c r="A30" s="9" t="s">
-        <v>214</v>
+      <c r="A30" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="O30" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="S30" s="14" t="s">
-        <v>217</v>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="S30" s="18" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="31" ht="18">
-      <c r="A31" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="O31" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="S31" s="14" t="s">
-        <v>217</v>
+      <c r="A31" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="M31" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="N31" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="O31" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="S31" s="18" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="32" ht="18">
-      <c r="A32" s="9" t="s">
-        <v>214</v>
+      <c r="A32" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="O32" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="S32" s="14" t="s">
-        <v>217</v>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="S32" s="18" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="33" ht="18">
-      <c r="A33" s="9" t="s">
-        <v>222</v>
+      <c r="A33" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="O33" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="S33" s="14" t="s">
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="S33" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" ht="18">
+      <c r="A34" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="S34" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" ht="18">
+      <c r="A35" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="N35" s="17"/>
+      <c r="S35" s="18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="34" ht="18">
-      <c r="A34" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="O34" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="S34" s="14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="35" ht="18">
-      <c r="A35" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-    </row>
     <row r="36" ht="18">
-      <c r="A36" s="2" t="s">
-        <v>229</v>
+      <c r="A36" s="13" t="s">
+        <v>218</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="S36" s="14" t="s">
-        <v>234</v>
+      <c r="G36" s="19"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="O36" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="S36" s="18" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="37" ht="18">
-      <c r="A37" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="I37" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="J37" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="K37" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="L37" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="M37" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="N37" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="O37" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="S37" s="14" t="s">
-        <v>238</v>
+      <c r="A37" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="O37" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="S37" s="18" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="38" ht="18">
-      <c r="A38" s="9" t="s">
-        <v>239</v>
+      <c r="A38" s="13" t="s">
+        <v>218</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="4" t="s">
-        <v>241</v>
-      </c>
+      <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="S38" s="14" t="s">
-        <v>247</v>
+      <c r="G38" s="19"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="O38" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="S38" s="18" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="39" ht="18">
-      <c r="A39" s="9" t="s">
-        <v>248</v>
+      <c r="A39" s="13" t="s">
+        <v>226</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="4" t="s">
-        <v>250</v>
-      </c>
+      <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="S39" s="14" t="s">
-        <v>256</v>
+      <c r="G39" s="19"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="O39" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="S39" s="18" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="40" ht="18">
-      <c r="A40" s="9" t="s">
-        <v>257</v>
+      <c r="A40" s="13" t="s">
+        <v>230</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
-        <v>259</v>
-      </c>
+      <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="S40" s="14" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="41" ht="54">
-      <c r="A41" s="9" t="s">
-        <v>121</v>
+      <c r="G40" s="19"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="O40" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="S40" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" ht="18">
+      <c r="A41" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M41" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="N41" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="O41" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>273</v>
-      </c>
+      <c r="D41" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
     </row>
     <row r="42" ht="18">
-      <c r="A42" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="I42" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="J42" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="K42" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="L42" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="M42" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="N42" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="O42" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="S42" s="14" t="s">
-        <v>279</v>
+      <c r="A42" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="S42" s="18" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="43" ht="18">
-      <c r="A43" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="J43" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="K43" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="N43" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>124</v>
+      <c r="A43" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="I43" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="J43" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="K43" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="L43" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="M43" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="N43" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="O43" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="S43" s="18" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="44" ht="18">
-      <c r="A44" s="9" t="s">
-        <v>287</v>
+      <c r="A44" s="13" t="s">
+        <v>243</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="E44" s="4"/>
-      <c r="F44" s="4" t="s">
-        <v>289</v>
-      </c>
+      <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>289</v>
+        <v>245</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>246</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="S44" s="14" t="s">
-        <v>290</v>
+        <v>250</v>
+      </c>
+      <c r="S44" s="18" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="45" ht="18">
-      <c r="A45" s="9" t="s">
-        <v>207</v>
+      <c r="A45" s="13" t="s">
+        <v>252</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="S45" s="18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="46" ht="18">
+      <c r="A46" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="R46" s="1"/>
+      <c r="S46" s="18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="47" ht="54">
+      <c r="A47" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="N47" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="O47" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="48" ht="18">
+      <c r="A48" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="J48" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="K48" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="L48" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="M48" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="N48" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="O48" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="S48" s="18" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="49" ht="18">
+      <c r="A49" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="J49" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="K49" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="N49" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" ht="18">
+      <c r="A50" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="S45" s="24" t="s">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="46" ht="16.5">
-      <c r="N46" s="4"/>
-      <c r="R46" s="1"/>
+      <c r="G50" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="S50" s="18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="51" ht="18">
+      <c r="A51" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="S51" s="28" t="s">
+        <v>297</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="S2"/>
-    <hyperlink r:id="rId2" ref="S3"/>
-    <hyperlink r:id="rId3" ref="S4"/>
-    <hyperlink r:id="rId4" ref="S5"/>
-    <hyperlink r:id="rId5" ref="S6"/>
-    <hyperlink r:id="rId6" ref="S7"/>
-    <hyperlink r:id="rId7" ref="S8"/>
-    <hyperlink r:id="rId8" ref="S9"/>
-    <hyperlink r:id="rId9" ref="S10"/>
-    <hyperlink r:id="rId10" ref="S11"/>
-    <hyperlink r:id="rId11" ref="S12"/>
-    <hyperlink r:id="rId12" ref="S13"/>
-    <hyperlink r:id="rId13" ref="S14"/>
-    <hyperlink r:id="rId14" ref="S15"/>
-    <hyperlink r:id="rId15" ref="S17"/>
-    <hyperlink r:id="rId16" ref="S18"/>
-    <hyperlink r:id="rId17" ref="S19"/>
-    <hyperlink r:id="rId18" ref="S20"/>
-    <hyperlink r:id="rId19" ref="S21"/>
-    <hyperlink r:id="rId20" ref="S22"/>
-    <hyperlink r:id="rId21" ref="S23"/>
-    <hyperlink r:id="rId22" ref="S24"/>
-    <hyperlink r:id="rId23" ref="S25"/>
-    <hyperlink r:id="rId24" ref="S26"/>
-    <hyperlink r:id="rId25" ref="S27"/>
-    <hyperlink r:id="rId26" ref="S28"/>
-    <hyperlink r:id="rId27" ref="S29"/>
-    <hyperlink r:id="rId28" ref="S30"/>
-    <hyperlink r:id="rId28" ref="S31"/>
-    <hyperlink r:id="rId28" ref="S32"/>
-    <hyperlink r:id="rId28" ref="S33"/>
-    <hyperlink r:id="rId28" ref="S34"/>
+    <hyperlink r:id="rId1" ref="B5"/>
+    <hyperlink r:id="rId2" ref="S8"/>
+    <hyperlink r:id="rId3" ref="S9"/>
+    <hyperlink r:id="rId4" ref="S10"/>
+    <hyperlink r:id="rId5" ref="S11"/>
+    <hyperlink r:id="rId6" ref="S12"/>
+    <hyperlink r:id="rId7" ref="S13"/>
+    <hyperlink r:id="rId8" ref="S14"/>
+    <hyperlink r:id="rId9" ref="S15"/>
+    <hyperlink r:id="rId10" ref="S16"/>
+    <hyperlink r:id="rId11" ref="S17"/>
+    <hyperlink r:id="rId12" ref="S18"/>
+    <hyperlink r:id="rId13" ref="S19"/>
+    <hyperlink r:id="rId14" ref="S20"/>
+    <hyperlink r:id="rId15" ref="S21"/>
+    <hyperlink r:id="rId16" ref="S23"/>
+    <hyperlink r:id="rId17" ref="S24"/>
+    <hyperlink r:id="rId18" ref="S25"/>
+    <hyperlink r:id="rId19" ref="S26"/>
+    <hyperlink r:id="rId20" ref="S27"/>
+    <hyperlink r:id="rId21" ref="S28"/>
+    <hyperlink r:id="rId22" ref="S29"/>
+    <hyperlink r:id="rId23" ref="S30"/>
+    <hyperlink r:id="rId24" ref="S31"/>
+    <hyperlink r:id="rId25" ref="S32"/>
+    <hyperlink r:id="rId26" ref="S33"/>
+    <hyperlink r:id="rId27" ref="S34"/>
+    <hyperlink r:id="rId28" ref="S35"/>
     <hyperlink r:id="rId29" ref="S36"/>
-    <hyperlink r:id="rId30" ref="S37"/>
-    <hyperlink r:id="rId31" ref="S38"/>
-    <hyperlink r:id="rId32" ref="S39"/>
-    <hyperlink r:id="rId33" ref="S40"/>
-    <hyperlink r:id="rId34" ref="S42"/>
-    <hyperlink r:id="rId35" ref="S44"/>
-    <hyperlink r:id="rId36" ref="S45"/>
+    <hyperlink r:id="rId29" ref="S37"/>
+    <hyperlink r:id="rId29" ref="S38"/>
+    <hyperlink r:id="rId29" ref="S39"/>
+    <hyperlink r:id="rId29" ref="S40"/>
+    <hyperlink r:id="rId30" ref="S42"/>
+    <hyperlink r:id="rId31" ref="S43"/>
+    <hyperlink r:id="rId32" ref="S44"/>
+    <hyperlink r:id="rId33" ref="S45"/>
+    <hyperlink r:id="rId34" ref="S46"/>
+    <hyperlink r:id="rId35" ref="S48"/>
+    <hyperlink r:id="rId36" ref="S50"/>
+    <hyperlink r:id="rId37" ref="S51"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/analyse-prix-composants.xlsx
+++ b/analyse-prix-composants.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="323">
   <si>
     <t xml:space="preserve">Le prix des composants IT</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">25 janv 2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 janv 2026</t>
   </si>
   <si>
     <t>URL</t>
@@ -116,6 +119,9 @@
     <t>362,84</t>
   </si>
   <si>
+    <t>367,56</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/dp/B07X19HT3S</t>
   </si>
   <si>
@@ -172,11 +178,14 @@
     <t>612</t>
   </si>
   <si>
+    <t>608</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/dp/B0BLTG7TN6</t>
   </si>
   <si>
     <t xml:space="preserve">Kingston FURY Impact KF556S40IBK2-64 PnP 64GB
-(2x32GB) 5600MT,s DDR5 CL40 SODIMM</t>
+(2x32GB) 5600MT/s DDR5 CL40 SODIMM</t>
   </si>
   <si>
     <t>685,71</t>
@@ -200,6 +209,9 @@
     <t>731,51</t>
   </si>
   <si>
+    <t>863,06</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/Kingston-M%C3%A9moire-dordinateur-Portable-KF556S40IBK2-64/dp/B0BRTJT5P2</t>
   </si>
   <si>
@@ -290,6 +302,9 @@
     <t>703,84</t>
   </si>
   <si>
+    <t>709,99</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/Gigabyte-GeForce-WINDFORCE-Carte-Graphique/dp/B0DTGP2WMT</t>
   </si>
   <si>
@@ -314,6 +329,9 @@
     <t>667,99</t>
   </si>
   <si>
+    <t>669,99</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/PNY-Carte-Graphique-GEFORCE-Triple/dp/B0F59N58GV</t>
   </si>
   <si>
@@ -323,6 +341,9 @@
     <t>9100</t>
   </si>
   <si>
+    <t>9489,04</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/PNY-NVIDIA-Blackwell-Max-Q-Workstation/dp/B0FW4XQD4Z</t>
   </si>
   <si>
@@ -341,6 +362,9 @@
     <t>1691,69</t>
   </si>
   <si>
+    <t>1697,62</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/PNY-GeForce-Overclocked-Triple-Reflex/dp/B0DZCVQGG6</t>
   </si>
   <si>
@@ -374,6 +398,9 @@
     <t>148,05</t>
   </si>
   <si>
+    <t>219,69</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/dp/B094NHTKQY</t>
   </si>
   <si>
@@ -389,6 +416,9 @@
     <t>176,92</t>
   </si>
   <si>
+    <t>198,90</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/PNY-Professionnelle-Mini-DisplayPort-Ventilateur-Silencieux/dp/B09RQBL7JP</t>
   </si>
   <si>
@@ -459,6 +489,9 @@
   </si>
   <si>
     <t>463,79</t>
+  </si>
+  <si>
+    <t>462,67</t>
   </si>
   <si>
     <t>https://www.amazon.fr/Western-Digital-Gold-16To-sATA/dp/B089S33PR3</t>
@@ -504,6 +537,9 @@
     <t>524,61</t>
   </si>
   <si>
+    <t>568,67</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/dp/B0CWHF3CZ7</t>
   </si>
   <si>
@@ -537,6 +573,9 @@
     <t>1543,13</t>
   </si>
   <si>
+    <t>1552,57</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/dp/B0C4BHC4MJ/ref=sr_aod_dp_ttl?th=1</t>
   </si>
   <si>
@@ -555,6 +594,9 @@
     <t>134,99</t>
   </si>
   <si>
+    <t>139,99</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/dp/B0DC8VPSHV?th=1</t>
   </si>
   <si>
@@ -576,6 +618,9 @@
     <t>76,19</t>
   </si>
   <si>
+    <t>74,99</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/PNY-CS900-Pouces-Internal-Solid/dp/B07XZLN9KM</t>
   </si>
   <si>
@@ -606,6 +651,9 @@
     <t>47,36</t>
   </si>
   <si>
+    <t>53,87</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/Kingston-SKC600-256G-Interne-Chiffrement/dp/B07ZDBZDR9</t>
   </si>
   <si>
@@ -639,6 +687,9 @@
     <t>241,99</t>
   </si>
   <si>
+    <t>224,85</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/Western-Digital-Rouge-SSD-SATA/dp/B07YFG3R5N</t>
   </si>
   <si>
@@ -648,6 +699,9 @@
     <t>155</t>
   </si>
   <si>
+    <t>153,44</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/SanDisk-Interne-Vitesse-Lecture-Ordinateur/dp/B0F4Y12GGN</t>
   </si>
   <si>
@@ -657,6 +711,9 @@
     <t>199,93</t>
   </si>
   <si>
+    <t>161,90</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/SanDisk-Ultra-SSD-jusqu%C3%A0-560/dp/B0B7VM4SRX</t>
   </si>
   <si>
@@ -690,6 +747,9 @@
     <t>642,82</t>
   </si>
   <si>
+    <t>721,68</t>
+  </si>
+  <si>
     <t>https://www.dell.com/fr-fr/shop/nos-solutions-serveurs-stockage-et-r%C3%A9seaux/serveur-au-format-rack-poweredge-r760xs/spd/poweredge-r760xs/per760xs1a?configurationid=08d14bf0-1fd2-465c-8fd3-1b2b0e632bde</t>
   </si>
   <si>
@@ -699,12 +759,18 @@
     <t>1151,71</t>
   </si>
   <si>
+    <t>1279,68</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dell 64 Go RDIMM, 5600 MT/s, dual-rank</t>
   </si>
   <si>
     <t>2159,83</t>
   </si>
   <si>
+    <t>2403,12</t>
+  </si>
+  <si>
     <t xml:space="preserve">SSD DELL</t>
   </si>
   <si>
@@ -726,6 +792,9 @@
     <t>1480,56</t>
   </si>
   <si>
+    <t>1628,62</t>
+  </si>
+  <si>
     <t>MONITOR</t>
   </si>
   <si>
@@ -780,6 +849,9 @@
     <t>34,50</t>
   </si>
   <si>
+    <t>32,50</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/dp/B07GS6ZB7T</t>
   </si>
   <si>
@@ -805,6 +877,9 @@
   </si>
   <si>
     <t>42</t>
+  </si>
+  <si>
+    <t>36,37</t>
   </si>
   <si>
     <t>https://www.amazon.fr/dp/B00LI4O9EA</t>
@@ -925,7 +1000,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -939,6 +1014,11 @@
     </font>
     <font>
       <sz val="12.000000"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Tahoma"/>
     </font>
@@ -1050,7 +1130,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1065,43 +1145,40 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="2" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="2" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="7" fillId="2" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="8" fillId="2" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="8" fillId="2" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="9" fillId="2" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="9" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="10" fillId="3" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="11" fillId="3" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf fontId="10" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="11" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf fontId="2" fillId="4" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf fontId="11" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="12" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1116,22 +1193,13 @@
     <xf fontId="2" fillId="5" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="2" fillId="6" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="5" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf fontId="2" fillId="7" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf fontId="11" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="12" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1634,15 +1702,16 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="1"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" style="2" width="10.421875"/>
-    <col customWidth="1" min="2" max="2" style="3" width="72.7109375"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" style="4" width="7.8515625"/>
+    <col customWidth="1" min="2" max="2" style="3" width="72.57421875"/>
+    <col customWidth="1" min="3" max="3" style="4" width="7.7109375"/>
     <col customWidth="1" min="4" max="4" style="4" width="10.140625"/>
     <col bestFit="1" customWidth="1" min="5" max="5" style="4" width="9.57421875"/>
     <col bestFit="1" customWidth="1" min="6" max="6" style="4" width="11.00390625"/>
@@ -1652,14 +1721,15 @@
     <col bestFit="1" min="12" max="12" style="4" width="11.7109375"/>
     <col bestFit="1" min="13" max="13" style="4" width="13.00390625"/>
     <col bestFit="1" min="14" max="15" style="4" width="14.140625"/>
-    <col min="16" max="18" style="1" width="9.140625"/>
+    <col customWidth="1" min="16" max="16" style="5" width="12.7109375"/>
+    <col min="17" max="18" style="1" width="9.140625"/>
     <col min="19" max="19" style="0" width="9.140625"/>
     <col min="20" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="33">
       <c r="A1" s="2"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="4"/>
@@ -1667,19 +1737,19 @@
     </row>
     <row r="2" ht="23.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="4"/>
     </row>
     <row r="3" ht="18">
       <c r="A3" s="2"/>
-      <c r="B3" s="7"/>
+      <c r="B3" s="3"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" ht="54">
       <c r="A4" s="2"/>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="N4" s="4"/>
@@ -1741,63 +1811,69 @@
       <c r="O7" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="P7" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="S7" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="36">
-      <c r="A8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="C8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="4">
         <v>284</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="J8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="K8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="L8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="M8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="N8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="18" t="s">
+      <c r="O8" s="16" t="s">
         <v>31</v>
       </c>
+      <c r="P8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" ht="36">
-      <c r="A9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>32</v>
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>200.47999999999999</v>
       </c>
       <c r="E9" s="4"/>
@@ -1806,83 +1882,89 @@
         <v>686</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="J9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="K9" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="L9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="O9" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="S9" s="18" t="s">
+      <c r="M9" s="16" t="s">
         <v>39</v>
       </c>
+      <c r="N9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" ht="36">
-      <c r="A10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="19">
+      <c r="A10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="18">
         <v>284.13</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22">
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21">
         <v>403.11000000000001</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="17" t="s">
+      <c r="H10" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="I10" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="J10" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="K10" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="L10" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="M10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="S10" s="18" t="s">
+      <c r="N10" s="16" t="s">
         <v>49</v>
       </c>
+      <c r="O10" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" ht="36">
-      <c r="A11" s="13" t="s">
-        <v>20</v>
+      <c r="A11" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1891,124 +1973,133 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="J11" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="K11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="O11" s="17" t="s">
+      <c r="L11" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="S11" s="18" t="s">
+      <c r="M11" s="16" t="s">
         <v>58</v>
       </c>
+      <c r="N11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="S11" s="17" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="12" ht="18">
-      <c r="A12" s="13" t="s">
-        <v>59</v>
+      <c r="A12" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="S12" s="18" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="S12" s="17" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" ht="36">
-      <c r="A13" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="22" t="s">
+      <c r="A13" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="H13" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="I13" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="N13" s="22" t="s">
+      <c r="J13" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="O13" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="S13" s="18" t="s">
+      <c r="K13" s="21" t="s">
         <v>80</v>
       </c>
+      <c r="L13" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" s="17" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" ht="18">
-      <c r="A14" s="13" t="s">
-        <v>69</v>
+      <c r="A14" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2018,33 +2109,36 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="O14" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="S14" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="S14" s="17" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="15" ht="18">
-      <c r="A15" s="13" t="s">
-        <v>69</v>
+      <c r="A15" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2054,75 +2148,81 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="S15" s="18" t="s">
-        <v>96</v>
+        <v>100</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="S15" s="17" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="16" ht="18">
-      <c r="A16" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="L16" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="N16" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="O16" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="S16" s="18" t="s">
-        <v>99</v>
+      <c r="A16" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="S16" s="17" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="17" ht="36">
-      <c r="A17" s="13" t="s">
-        <v>69</v>
+      <c r="A17" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2133,418 +2233,448 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="O17" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="S17" s="18" t="s">
-        <v>105</v>
+        <v>110</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="S17" s="17" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="18" ht="18">
-      <c r="A18" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="M18" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="N18" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="O18" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="S18" s="18" t="s">
-        <v>109</v>
+      <c r="A18" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="S18" s="17" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="19" ht="18">
       <c r="A19" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="19" t="s">
-        <v>112</v>
+      <c r="G19" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="N19" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="O19" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="S19" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="P19" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="S19" s="17" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="20" ht="18">
       <c r="A20" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="N20" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="O20" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="S20" s="18" t="s">
-        <v>121</v>
+        <v>128</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="O20" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="S20" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="21" ht="18">
-      <c r="A21" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="O21" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="S21" s="18" t="s">
-        <v>124</v>
+      <c r="A21" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S21" s="17" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="22" ht="36">
-      <c r="A22" s="13" t="s">
-        <v>125</v>
+      <c r="A22" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" ht="18">
-      <c r="A23" s="13" t="s">
-        <v>129</v>
+      <c r="A23" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="19" t="s">
-        <v>131</v>
+      <c r="G23" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="O23" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="S23" s="18" t="s">
-        <v>137</v>
+        <v>145</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="S23" s="17" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="24" ht="18">
-      <c r="A24" s="13" t="s">
-        <v>129</v>
+      <c r="A24" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="19" t="s">
-        <v>139</v>
+      <c r="G24" s="18" t="s">
+        <v>149</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="O24" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="S24" s="18" t="s">
-        <v>145</v>
+        <v>153</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="S24" s="17" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="25" ht="36">
-      <c r="A25" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="L25" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="M25" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="N25" s="22" t="s">
+      <c r="A25" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="O25" s="22" t="s">
+      <c r="B25" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="S25" s="18" t="s">
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21" t="s">
         <v>159</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="O25" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="S25" s="17" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="26" ht="18">
       <c r="A26" s="2" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="19" t="s">
-        <v>161</v>
+      <c r="D26" s="18" t="s">
+        <v>173</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="K26" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="L26" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="N26" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="O26" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="S26" s="18" t="s">
-        <v>170</v>
+        <v>175</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="O26" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="P26" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="S26" s="17" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="27" ht="18">
       <c r="A27" s="2" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2555,66 +2685,72 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="N27" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="O27" s="17" t="s">
-        <v>175</v>
+        <v>185</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="P27" s="16" t="s">
+        <v>189</v>
       </c>
       <c r="R27" s="1"/>
-      <c r="S27" s="18" t="s">
-        <v>176</v>
+      <c r="S27" s="17" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="28" ht="18">
-      <c r="A28" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="L28" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="M28" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="N28" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="O28" s="22" t="s">
-        <v>182</v>
+      <c r="A28" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="O28" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="R28" s="1"/>
-      <c r="S28" s="18" t="s">
-        <v>183</v>
+      <c r="S28" s="17" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="29" ht="18">
       <c r="A29" s="2" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2625,30 +2761,33 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="N29" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="O29" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="S29" s="18" t="s">
-        <v>189</v>
+        <v>201</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="P29" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="S29" s="17" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="30" ht="18">
       <c r="A30" s="2" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2660,59 +2799,65 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="S30" s="18" t="s">
-        <v>193</v>
+        <v>201</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="S30" s="17" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="31" ht="18">
-      <c r="A31" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M31" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="N31" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="O31" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="S31" s="18" t="s">
-        <v>199</v>
+      <c r="A31" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="M31" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="N31" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="O31" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="S31" s="17" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="32" ht="18">
       <c r="A32" s="2" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2725,24 +2870,27 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="S32" s="18" t="s">
-        <v>204</v>
+        <v>218</v>
+      </c>
+      <c r="O32" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="S32" s="17" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="33" ht="18">
       <c r="A33" s="2" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2756,667 +2904,720 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
-      <c r="O33" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="S33" s="18" t="s">
-        <v>207</v>
+      <c r="O33" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="S33" s="17" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="34" ht="18">
-      <c r="A34" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="S34" s="18" t="s">
-        <v>210</v>
+      <c r="A34" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="S34" s="17" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="35" ht="18">
-      <c r="A35" s="13" t="s">
-        <v>211</v>
+      <c r="A35" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="J35" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="K35" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="L35" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="M35" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="N35" s="17"/>
-      <c r="S35" s="18" t="s">
-        <v>217</v>
+      <c r="G35" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="M35" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="N35" s="16"/>
+      <c r="P35" s="4"/>
+      <c r="S35" s="17" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="36" ht="18">
-      <c r="A36" s="13" t="s">
-        <v>218</v>
+      <c r="A36" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="O36" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="S36" s="18" t="s">
-        <v>221</v>
+      <c r="G36" s="18"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="O36" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="P36" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="S36" s="17" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="37" ht="18">
-      <c r="A37" s="13" t="s">
-        <v>218</v>
+      <c r="A37" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="O37" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="S37" s="18" t="s">
-        <v>221</v>
+      <c r="G37" s="18"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="O37" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="P37" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="S37" s="17" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="38" ht="18">
-      <c r="A38" s="13" t="s">
-        <v>218</v>
+      <c r="A38" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="O38" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="S38" s="18" t="s">
-        <v>221</v>
+      <c r="G38" s="18"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="O38" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="P38" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="S38" s="17" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="39" ht="18">
-      <c r="A39" s="13" t="s">
-        <v>226</v>
+      <c r="A39" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="O39" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="S39" s="18" t="s">
-        <v>221</v>
+      <c r="G39" s="18"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="O39" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="P39" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="S39" s="17" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="40" ht="18">
-      <c r="A40" s="13" t="s">
-        <v>230</v>
+      <c r="A40" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="O40" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="S40" s="18" t="s">
-        <v>221</v>
+      <c r="G40" s="18"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="O40" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="P40" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="S40" s="17" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="41" ht="18">
-      <c r="A41" s="13" t="s">
-        <v>233</v>
+      <c r="A41" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
+        <v>258</v>
+      </c>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="P41" s="4"/>
     </row>
     <row r="42" ht="18">
       <c r="A42" s="2" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="19" t="s">
-        <v>237</v>
+      <c r="G42" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="S42" s="18" t="s">
-        <v>238</v>
+        <v>260</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="S42" s="17" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="43" ht="18">
-      <c r="A43" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="I43" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="J43" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="K43" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="L43" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="M43" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="N43" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="O43" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="S43" s="18" t="s">
-        <v>242</v>
+      <c r="A43" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="L43" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="M43" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="N43" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="O43" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="S43" s="17" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="44" ht="18">
-      <c r="A44" s="13" t="s">
-        <v>243</v>
+      <c r="A44" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>246</v>
+        <v>268</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>269</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="S44" s="18" t="s">
-        <v>251</v>
+        <v>273</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="S44" s="17" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="45" ht="18">
-      <c r="A45" s="13" t="s">
-        <v>252</v>
+      <c r="A45" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="J45" s="19" t="s">
-        <v>257</v>
+        <v>280</v>
+      </c>
+      <c r="J45" s="18" t="s">
+        <v>281</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="S45" s="18" t="s">
-        <v>260</v>
+        <v>283</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="S45" s="17" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="46" ht="18">
-      <c r="A46" s="13" t="s">
-        <v>261</v>
+      <c r="A46" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H46" s="19" t="s">
-        <v>265</v>
+        <v>289</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>290</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>271</v>
+        <v>296</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="R46" s="1"/>
-      <c r="S46" s="18" t="s">
-        <v>272</v>
+      <c r="S46" s="17" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="47" ht="54">
-      <c r="A47" s="13" t="s">
-        <v>125</v>
+      <c r="A47" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M47" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="N47" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="O47" s="17" t="s">
-        <v>276</v>
+        <v>29</v>
+      </c>
+      <c r="M47" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="N47" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="O47" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="P47" s="16" t="s">
+        <v>301</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
     </row>
     <row r="48" ht="18">
-      <c r="A48" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="H48" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="I48" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="J48" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="K48" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="L48" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="M48" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="N48" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="O48" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="S48" s="18" t="s">
-        <v>283</v>
+      <c r="A48" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="I48" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="J48" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="K48" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="L48" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="M48" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="N48" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="O48" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="S48" s="17" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="49" ht="18">
-      <c r="A49" s="13" t="s">
-        <v>284</v>
+      <c r="A49" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="I49" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="J49" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="K49" s="19" t="s">
-        <v>287</v>
+        <v>311</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="J49" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>312</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="N49" s="19" t="s">
-        <v>290</v>
+        <v>314</v>
+      </c>
+      <c r="N49" s="18" t="s">
+        <v>315</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>287</v>
+        <v>312</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" ht="18">
-      <c r="A50" s="13" t="s">
-        <v>291</v>
+      <c r="A50" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="S50" s="18" t="s">
-        <v>294</v>
+        <v>318</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="S50" s="17" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="51" ht="18">
-      <c r="A51" s="13" t="s">
-        <v>211</v>
+      <c r="A51" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="S51" s="28" t="s">
-        <v>297</v>
+        <v>321</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="S51" s="24" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/analyse-prix-composants.xlsx
+++ b/analyse-prix-composants.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuille1!$A:$O</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuille1!$A:$Q</definedName>
     <definedName name="Print_Titles" localSheetId="0">Feuille1!$7:$7</definedName>
   </definedNames>
   <calcPr/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
   <si>
     <t xml:space="preserve">Le prix des composants IT</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">31 janv 2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 fev 2026</t>
   </si>
   <si>
     <t>URL</t>
@@ -181,6 +184,9 @@
     <t>608</t>
   </si>
   <si>
+    <t>618,80</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/dp/B0BLTG7TN6</t>
   </si>
   <si>
@@ -212,6 +218,9 @@
     <t>863,06</t>
   </si>
   <si>
+    <t>863,60</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/Kingston-M%C3%A9moire-dordinateur-Portable-KF556S40IBK2-64/dp/B0BRTJT5P2</t>
   </si>
   <si>
@@ -242,6 +251,9 @@
     <t>567,98</t>
   </si>
   <si>
+    <t>554,98</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/ASUS-W680-ACE-LGA1700-4xDDR5-8xSATA/dp/B0BRYH3868</t>
   </si>
   <si>
@@ -305,6 +317,9 @@
     <t>709,99</t>
   </si>
   <si>
+    <t>679</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/Gigabyte-GeForce-WINDFORCE-Carte-Graphique/dp/B0DTGP2WMT</t>
   </si>
   <si>
@@ -332,6 +347,9 @@
     <t>669,99</t>
   </si>
   <si>
+    <t>675</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/PNY-Carte-Graphique-GEFORCE-Triple/dp/B0F59N58GV</t>
   </si>
   <si>
@@ -344,6 +362,9 @@
     <t>9489,04</t>
   </si>
   <si>
+    <t>9486,26</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/PNY-NVIDIA-Blackwell-Max-Q-Workstation/dp/B0FW4XQD4Z</t>
   </si>
   <si>
@@ -401,6 +422,9 @@
     <t>219,69</t>
   </si>
   <si>
+    <t>237,70</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/dp/B094NHTKQY</t>
   </si>
   <si>
@@ -419,6 +443,9 @@
     <t>198,90</t>
   </si>
   <si>
+    <t>203,93</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/PNY-Professionnelle-Mini-DisplayPort-Ventilateur-Silencieux/dp/B09RQBL7JP</t>
   </si>
   <si>
@@ -440,7 +467,10 @@
     <t>550</t>
   </si>
   <si>
-    <t>Boulanger</t>
+    <t>580</t>
+  </si>
+  <si>
+    <t>https://www.boulanger.com/ref/1222400</t>
   </si>
   <si>
     <t>HDD</t>
@@ -492,6 +522,9 @@
   </si>
   <si>
     <t>462,67</t>
+  </si>
+  <si>
+    <t>473</t>
   </si>
   <si>
     <t>https://www.amazon.fr/Western-Digital-Gold-16To-sATA/dp/B089S33PR3</t>
@@ -540,6 +573,9 @@
     <t>568,67</t>
   </si>
   <si>
+    <t>559,31</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/dp/B0CWHF3CZ7</t>
   </si>
   <si>
@@ -576,6 +612,9 @@
     <t>1552,57</t>
   </si>
   <si>
+    <t>1542,17</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/dp/B0C4BHC4MJ/ref=sr_aod_dp_ttl?th=1</t>
   </si>
   <si>
@@ -597,6 +636,9 @@
     <t>139,99</t>
   </si>
   <si>
+    <t>149,99</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/dp/B0DC8VPSHV?th=1</t>
   </si>
   <si>
@@ -621,6 +663,9 @@
     <t>74,99</t>
   </si>
   <si>
+    <t>77,32</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/PNY-CS900-Pouces-Internal-Solid/dp/B07XZLN9KM</t>
   </si>
   <si>
@@ -639,6 +684,9 @@
     <t>82,59</t>
   </si>
   <si>
+    <t>80,77</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/dp/B01N0TQPQB</t>
   </si>
   <si>
@@ -672,6 +720,9 @@
     <t>112</t>
   </si>
   <si>
+    <t>111,43</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/Kingston-SKC600-512G-Interne-Chiffrement/dp/B07ZDBT15M</t>
   </si>
   <si>
@@ -702,6 +753,9 @@
     <t>153,44</t>
   </si>
   <si>
+    <t>144,95</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/SanDisk-Interne-Vitesse-Lecture-Ordinateur/dp/B0F4Y12GGN</t>
   </si>
   <si>
@@ -714,6 +768,9 @@
     <t>161,90</t>
   </si>
   <si>
+    <t>175,99</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/SanDisk-Ultra-SSD-jusqu%C3%A0-560/dp/B0B7VM4SRX</t>
   </si>
   <si>
@@ -822,6 +879,9 @@
     <t>88,33</t>
   </si>
   <si>
+    <t>118,58</t>
+  </si>
+  <si>
     <t>https://www.reichelt.com/fr/fr/shop/produit/raspberry_pi_4_b_4x_1_5_ghz_8_gb_ram_wlan_bt-276923?country=fr&amp;CCTYPE=private&amp;LANGUAGE=fr</t>
   </si>
   <si>
@@ -882,6 +942,9 @@
     <t>36,37</t>
   </si>
   <si>
+    <t>35,12</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/dp/B00LI4O9EA</t>
   </si>
   <si>
@@ -918,6 +981,9 @@
     <t>22,90</t>
   </si>
   <si>
+    <t>34,69</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/dp/B0CDCL6FLC</t>
   </si>
   <si>
@@ -973,6 +1039,12 @@
   </si>
   <si>
     <t>88,05</t>
+  </si>
+  <si>
+    <t>81,69</t>
+  </si>
+  <si>
+    <t>Boulanger</t>
   </si>
   <si>
     <t>Printer</t>
@@ -1074,7 +1146,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1113,6 +1185,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="2"/>
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
@@ -1130,7 +1208,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1197,6 +1275,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf fontId="2" fillId="7" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="8" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf fontId="12" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
@@ -1702,7 +1783,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="1"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
@@ -1722,7 +1803,8 @@
     <col bestFit="1" min="13" max="13" style="4" width="13.00390625"/>
     <col bestFit="1" min="14" max="15" style="4" width="14.140625"/>
     <col customWidth="1" min="16" max="16" style="5" width="12.7109375"/>
-    <col min="17" max="18" style="1" width="9.140625"/>
+    <col customWidth="1" min="17" max="17" style="1" width="12.7109375"/>
+    <col min="18" max="18" style="1" width="9.140625"/>
     <col min="19" max="19" style="0" width="9.140625"/>
     <col min="20" max="16384" style="1" width="9.140625"/>
   </cols>
@@ -1733,6 +1815,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="4"/>
+      <c r="Q1" s="5"/>
       <c r="S1"/>
     </row>
     <row r="2" ht="23.25">
@@ -1741,11 +1824,13 @@
         <v>1</v>
       </c>
       <c r="N2" s="4"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" ht="18">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="N3" s="4"/>
+      <c r="Q3" s="5"/>
     </row>
     <row r="4" ht="54">
       <c r="A4" s="2"/>
@@ -1753,6 +1838,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="4"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" ht="23.25">
       <c r="A5" s="2"/>
@@ -1760,10 +1846,12 @@
         <v>3</v>
       </c>
       <c r="N5" s="4"/>
+      <c r="Q5" s="5"/>
     </row>
     <row r="6" ht="16.5">
       <c r="A6" s="2"/>
       <c r="N6" s="4"/>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7" ht="18">
       <c r="A7" s="9" t="s">
@@ -1814,19 +1902,22 @@
       <c r="P7" s="11" t="s">
         <v>19</v>
       </c>
+      <c r="Q7" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="S7" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="36">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -1835,42 +1926,45 @@
         <v>284</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" ht="36">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="18">
@@ -1882,42 +1976,45 @@
         <v>686</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" ht="36">
       <c r="A10" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="18">
@@ -1929,42 +2026,45 @@
         <v>403.11000000000001</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" ht="36">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1973,133 +2073,142 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="Q11" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" ht="18">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" ht="36">
       <c r="A13" s="19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" ht="18">
       <c r="A14" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2109,36 +2218,39 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>92</v>
+        <v>96</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" ht="18">
       <c r="A15" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2148,81 +2260,87 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" ht="18">
       <c r="A16" s="19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>105</v>
+        <v>111</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" ht="36">
       <c r="A17" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2233,448 +2351,478 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>112</v>
+        <v>119</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" ht="18">
       <c r="A18" s="19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" ht="18">
       <c r="A19" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="18" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="O19" s="18" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="P19" s="22" t="s">
-        <v>124</v>
+        <v>131</v>
+      </c>
+      <c r="Q19" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" ht="18">
       <c r="A20" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>130</v>
+        <v>138</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" ht="18">
       <c r="A21" s="19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" ht="36">
       <c r="A22" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="S22" s="17" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="23" ht="18">
       <c r="A23" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="18" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>146</v>
+        <v>156</v>
+      </c>
+      <c r="Q23" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="S23" s="17" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" ht="18">
       <c r="A24" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="18" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>155</v>
+        <v>165</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" ht="36">
       <c r="A25" s="19" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>170</v>
+        <v>181</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="S25" s="17" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" ht="18">
       <c r="A26" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="18" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="P26" s="22" t="s">
-        <v>182</v>
+        <v>194</v>
+      </c>
+      <c r="Q26" s="22" t="s">
+        <v>195</v>
       </c>
       <c r="S26" s="17" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" ht="18">
       <c r="A27" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2685,34 +2833,37 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="P27" s="16" t="s">
-        <v>189</v>
+        <v>202</v>
+      </c>
+      <c r="Q27" s="16" t="s">
+        <v>203</v>
       </c>
       <c r="R27" s="1"/>
       <c r="S27" s="17" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" ht="18">
       <c r="A28" s="19" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
@@ -2723,34 +2874,37 @@
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>197</v>
+        <v>211</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="17" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" ht="18">
       <c r="A29" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2761,33 +2915,36 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="P29" s="16" t="s">
-        <v>203</v>
+        <v>218</v>
+      </c>
+      <c r="Q29" s="16" t="s">
+        <v>219</v>
       </c>
       <c r="S29" s="17" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" ht="18">
       <c r="A30" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2799,30 +2956,33 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>208</v>
+        <v>224</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="S30" s="17" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" ht="18">
       <c r="A31" s="19" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
@@ -2834,30 +2994,33 @@
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
       <c r="L31" s="21" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="M31" s="21" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="N31" s="21" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>213</v>
+        <v>229</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="S31" s="17" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" ht="18">
       <c r="A32" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2870,27 +3033,30 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="O32" s="22" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="P32" s="16" t="s">
-        <v>220</v>
+        <v>237</v>
+      </c>
+      <c r="Q32" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="S32" s="17" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" ht="18">
       <c r="A33" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2905,21 +3071,24 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>224</v>
+        <v>241</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="S33" s="17" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" ht="18">
       <c r="A34" s="19" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
@@ -2934,59 +3103,63 @@
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>228</v>
+        <v>246</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="S34" s="17" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" ht="18">
       <c r="A35" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="18" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="M35" s="16" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="N35" s="16"/>
       <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
       <c r="S35" s="17" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" ht="18">
       <c r="A36" s="2" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3000,24 +3173,27 @@
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
       <c r="N36" s="16" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="P36" s="22" t="s">
-        <v>240</v>
+        <v>259</v>
+      </c>
+      <c r="Q36" s="22" t="s">
+        <v>259</v>
       </c>
       <c r="S36" s="17" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" ht="18">
       <c r="A37" s="2" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -3031,24 +3207,27 @@
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
       <c r="N37" s="16" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="P37" s="22" t="s">
-        <v>244</v>
+        <v>263</v>
+      </c>
+      <c r="Q37" s="22" t="s">
+        <v>263</v>
       </c>
       <c r="S37" s="17" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" ht="18">
       <c r="A38" s="2" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3062,24 +3241,27 @@
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
       <c r="N38" s="16" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="P38" s="22" t="s">
-        <v>247</v>
+        <v>266</v>
+      </c>
+      <c r="Q38" s="22" t="s">
+        <v>266</v>
       </c>
       <c r="S38" s="17" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" ht="18">
       <c r="A39" s="2" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3093,24 +3275,27 @@
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
       <c r="N39" s="16" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="P39" s="22" t="s">
-        <v>251</v>
+        <v>270</v>
+      </c>
+      <c r="Q39" s="22" t="s">
+        <v>270</v>
       </c>
       <c r="S39" s="17" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" ht="18">
       <c r="A40" s="2" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3124,500 +3309,534 @@
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
       <c r="N40" s="16" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="O40" s="16" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="P40" s="22" t="s">
-        <v>255</v>
+        <v>274</v>
+      </c>
+      <c r="Q40" s="22" t="s">
+        <v>274</v>
       </c>
       <c r="S40" s="17" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" ht="18">
       <c r="A41" s="2" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
+        <v>277</v>
+      </c>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
       <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
     </row>
     <row r="42" ht="18">
       <c r="A42" s="2" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="18" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>260</v>
+        <v>279</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="S42" s="17" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" ht="18">
       <c r="A43" s="19" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="K43" s="21" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="L43" s="21" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="M43" s="21" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="N43" s="21" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>264</v>
+        <v>283</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="S43" s="17" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" ht="18">
       <c r="A44" s="2" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>274</v>
+        <v>294</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="S44" s="17" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" ht="18">
       <c r="A45" s="2" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>284</v>
+        <v>304</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="S45" s="17" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" ht="18">
       <c r="A46" s="2" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>296</v>
+        <v>317</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="R46" s="1"/>
       <c r="S46" s="17" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" ht="54">
       <c r="A47" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M47" s="18" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="N47" s="16" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="P47" s="16" t="s">
-        <v>301</v>
+        <v>323</v>
+      </c>
+      <c r="Q47" s="16" t="s">
+        <v>323</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" ht="18">
       <c r="A48" s="19" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
       <c r="G48" s="21" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="L48" s="21" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="M48" s="21" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="N48" s="21" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="O48" s="21" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>307</v>
+        <v>329</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="S48" s="17" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" ht="18">
       <c r="A49" s="2" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="N49" s="18" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>312</v>
+        <v>334</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>138</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" ht="18">
       <c r="A50" s="2" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>318</v>
+        <v>342</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="S50" s="17" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
     </row>
     <row r="51" ht="18">
       <c r="A51" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="S51" s="24" t="s">
-        <v>322</v>
+        <v>345</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="S51" s="25" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -3637,36 +3856,37 @@
     <hyperlink r:id="rId13" ref="S19"/>
     <hyperlink r:id="rId14" ref="S20"/>
     <hyperlink r:id="rId15" ref="S21"/>
-    <hyperlink r:id="rId16" ref="S23"/>
-    <hyperlink r:id="rId17" ref="S24"/>
-    <hyperlink r:id="rId18" ref="S25"/>
-    <hyperlink r:id="rId19" ref="S26"/>
-    <hyperlink r:id="rId20" ref="S27"/>
-    <hyperlink r:id="rId21" ref="S28"/>
-    <hyperlink r:id="rId22" ref="S29"/>
-    <hyperlink r:id="rId23" ref="S30"/>
-    <hyperlink r:id="rId24" ref="S31"/>
-    <hyperlink r:id="rId25" ref="S32"/>
-    <hyperlink r:id="rId26" ref="S33"/>
-    <hyperlink r:id="rId27" ref="S34"/>
-    <hyperlink r:id="rId28" ref="S35"/>
-    <hyperlink r:id="rId29" ref="S36"/>
-    <hyperlink r:id="rId29" ref="S37"/>
-    <hyperlink r:id="rId29" ref="S38"/>
-    <hyperlink r:id="rId29" ref="S39"/>
-    <hyperlink r:id="rId29" ref="S40"/>
-    <hyperlink r:id="rId30" ref="S42"/>
-    <hyperlink r:id="rId31" ref="S43"/>
-    <hyperlink r:id="rId32" ref="S44"/>
-    <hyperlink r:id="rId33" ref="S45"/>
-    <hyperlink r:id="rId34" ref="S46"/>
-    <hyperlink r:id="rId35" ref="S48"/>
-    <hyperlink r:id="rId36" ref="S50"/>
-    <hyperlink r:id="rId37" ref="S51"/>
+    <hyperlink r:id="rId16" ref="S22"/>
+    <hyperlink r:id="rId17" ref="S23"/>
+    <hyperlink r:id="rId18" ref="S24"/>
+    <hyperlink r:id="rId19" ref="S25"/>
+    <hyperlink r:id="rId20" ref="S26"/>
+    <hyperlink r:id="rId21" ref="S27"/>
+    <hyperlink r:id="rId22" ref="S28"/>
+    <hyperlink r:id="rId23" ref="S29"/>
+    <hyperlink r:id="rId24" ref="S30"/>
+    <hyperlink r:id="rId25" ref="S31"/>
+    <hyperlink r:id="rId26" ref="S32"/>
+    <hyperlink r:id="rId27" ref="S33"/>
+    <hyperlink r:id="rId28" ref="S34"/>
+    <hyperlink r:id="rId29" ref="S35"/>
+    <hyperlink r:id="rId30" ref="S36"/>
+    <hyperlink r:id="rId30" ref="S37"/>
+    <hyperlink r:id="rId30" ref="S38"/>
+    <hyperlink r:id="rId30" ref="S39"/>
+    <hyperlink r:id="rId30" ref="S40"/>
+    <hyperlink r:id="rId31" ref="S42"/>
+    <hyperlink r:id="rId32" ref="S43"/>
+    <hyperlink r:id="rId33" ref="S44"/>
+    <hyperlink r:id="rId34" ref="S45"/>
+    <hyperlink r:id="rId35" ref="S46"/>
+    <hyperlink r:id="rId36" ref="S48"/>
+    <hyperlink r:id="rId37" ref="S50"/>
+    <hyperlink r:id="rId38" ref="S51"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="57" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="52" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/analyse-prix-composants.xlsx
+++ b/analyse-prix-composants.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
   <si>
     <t xml:space="preserve">Le prix des composants IT</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">8 fev 2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 fev 2026</t>
   </si>
   <si>
     <t>URL</t>
@@ -125,6 +128,9 @@
     <t>367,56</t>
   </si>
   <si>
+    <t>366,90</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/dp/B07X19HT3S</t>
   </si>
   <si>
@@ -187,6 +193,9 @@
     <t>618,80</t>
   </si>
   <si>
+    <t>614,99</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/dp/B0BLTG7TN6</t>
   </si>
   <si>
@@ -221,6 +230,9 @@
     <t>863,60</t>
   </si>
   <si>
+    <t>822,25</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/Kingston-M%C3%A9moire-dordinateur-Portable-KF556S40IBK2-64/dp/B0BRTJT5P2</t>
   </si>
   <si>
@@ -254,6 +266,9 @@
     <t>554,98</t>
   </si>
   <si>
+    <t>575,98</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/ASUS-W680-ACE-LGA1700-4xDDR5-8xSATA/dp/B0BRYH3868</t>
   </si>
   <si>
@@ -320,6 +335,9 @@
     <t>679</t>
   </si>
   <si>
+    <t>709,90</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/Gigabyte-GeForce-WINDFORCE-Carte-Graphique/dp/B0DTGP2WMT</t>
   </si>
   <si>
@@ -350,6 +368,9 @@
     <t>675</t>
   </si>
   <si>
+    <t>728,61</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/PNY-Carte-Graphique-GEFORCE-Triple/dp/B0F59N58GV</t>
   </si>
   <si>
@@ -365,6 +386,9 @@
     <t>9486,26</t>
   </si>
   <si>
+    <t>9395,29</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/PNY-NVIDIA-Blackwell-Max-Q-Workstation/dp/B0FW4XQD4Z</t>
   </si>
   <si>
@@ -386,6 +410,9 @@
     <t>1697,62</t>
   </si>
   <si>
+    <t>1516</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/PNY-GeForce-Overclocked-Triple-Reflex/dp/B0DZCVQGG6</t>
   </si>
   <si>
@@ -446,6 +473,9 @@
     <t>203,93</t>
   </si>
   <si>
+    <t>208,97</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/PNY-Professionnelle-Mini-DisplayPort-Ventilateur-Silencieux/dp/B09RQBL7JP</t>
   </si>
   <si>
@@ -455,6 +485,9 @@
     <t>396,78</t>
   </si>
   <si>
+    <t>413</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/Nvidia-Quadro-T600-graphique-Single/dp/B0F2J9D8WV</t>
   </si>
   <si>
@@ -470,6 +503,9 @@
     <t>580</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>https://www.boulanger.com/ref/1222400</t>
   </si>
   <si>
@@ -525,6 +561,9 @@
   </si>
   <si>
     <t>473</t>
+  </si>
+  <si>
+    <t>504,73</t>
   </si>
   <si>
     <t>https://www.amazon.fr/Western-Digital-Gold-16To-sATA/dp/B089S33PR3</t>
@@ -576,6 +615,9 @@
     <t>559,31</t>
   </si>
   <si>
+    <t>557,16</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/dp/B0CWHF3CZ7</t>
   </si>
   <si>
@@ -615,6 +657,9 @@
     <t>1542,17</t>
   </si>
   <si>
+    <t>1398</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/dp/B0C4BHC4MJ/ref=sr_aod_dp_ttl?th=1</t>
   </si>
   <si>
@@ -666,6 +711,9 @@
     <t>77,32</t>
   </si>
   <si>
+    <t>83</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/PNY-CS900-Pouces-Internal-Solid/dp/B07XZLN9KM</t>
   </si>
   <si>
@@ -702,6 +750,9 @@
     <t>53,87</t>
   </si>
   <si>
+    <t>83,91</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/Kingston-SKC600-256G-Interne-Chiffrement/dp/B07ZDBZDR9</t>
   </si>
   <si>
@@ -741,6 +792,9 @@
     <t>224,85</t>
   </si>
   <si>
+    <t>257,87</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/Western-Digital-Rouge-SSD-SATA/dp/B07YFG3R5N</t>
   </si>
   <si>
@@ -756,6 +810,9 @@
     <t>144,95</t>
   </si>
   <si>
+    <t>152,50</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/SanDisk-Interne-Vitesse-Lecture-Ordinateur/dp/B0F4Y12GGN</t>
   </si>
   <si>
@@ -771,6 +828,9 @@
     <t>175,99</t>
   </si>
   <si>
+    <t>144</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/SanDisk-Ultra-SSD-jusqu%C3%A0-560/dp/B0B7VM4SRX</t>
   </si>
   <si>
@@ -945,6 +1005,9 @@
     <t>35,12</t>
   </si>
   <si>
+    <t>36,41</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/dp/B00LI4O9EA</t>
   </si>
   <si>
@@ -999,6 +1062,9 @@
     <t>1820,77</t>
   </si>
   <si>
+    <t>1669,97</t>
+  </si>
+  <si>
     <t>Dell</t>
   </si>
   <si>
@@ -1017,6 +1083,9 @@
     <t>38,37</t>
   </si>
   <si>
+    <t>39,39</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/disposition-fran%C3%A7aise-homologation-m%C3%A9canisme-silencieuse/dp/B07Z1F6R2B</t>
   </si>
   <si>
@@ -1042,6 +1111,9 @@
   </si>
   <si>
     <t>81,69</t>
+  </si>
+  <si>
+    <t>84,90</t>
   </si>
   <si>
     <t>Boulanger</t>
@@ -1783,7 +1855,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="1"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
@@ -1803,8 +1875,7 @@
     <col bestFit="1" min="13" max="13" style="4" width="13.00390625"/>
     <col bestFit="1" min="14" max="15" style="4" width="14.140625"/>
     <col customWidth="1" min="16" max="16" style="5" width="12.7109375"/>
-    <col customWidth="1" min="17" max="17" style="1" width="12.7109375"/>
-    <col min="18" max="18" style="1" width="9.140625"/>
+    <col customWidth="1" min="17" max="18" style="1" width="12.7109375"/>
     <col min="19" max="19" style="0" width="9.140625"/>
     <col min="20" max="16384" style="1" width="9.140625"/>
   </cols>
@@ -1816,6 +1887,7 @@
       </c>
       <c r="N1" s="4"/>
       <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
       <c r="S1"/>
     </row>
     <row r="2" ht="23.25">
@@ -1825,12 +1897,14 @@
       </c>
       <c r="N2" s="4"/>
       <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
     </row>
     <row r="3" ht="18">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="N3" s="4"/>
       <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
     </row>
     <row r="4" ht="54">
       <c r="A4" s="2"/>
@@ -1839,6 +1913,7 @@
       </c>
       <c r="N4" s="4"/>
       <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
     </row>
     <row r="5" ht="23.25">
       <c r="A5" s="2"/>
@@ -1847,11 +1922,13 @@
       </c>
       <c r="N5" s="4"/>
       <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
     </row>
     <row r="6" ht="16.5">
       <c r="A6" s="2"/>
       <c r="N6" s="4"/>
       <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
     </row>
     <row r="7" ht="18">
       <c r="A7" s="9" t="s">
@@ -1905,19 +1982,22 @@
       <c r="Q7" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="R7" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="S7" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" ht="36">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -1926,45 +2006,48 @@
         <v>284</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" ht="36">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="18">
@@ -1976,45 +2059,48 @@
         <v>686</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="R9" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" ht="36">
       <c r="A10" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="18">
@@ -2026,45 +2112,48 @@
         <v>403.11000000000001</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" ht="36">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2073,142 +2162,151 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" ht="18">
       <c r="A12" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" ht="36">
       <c r="A13" s="19" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="18" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" ht="18">
       <c r="A14" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2218,39 +2316,42 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>97</v>
+        <v>102</v>
+      </c>
+      <c r="R14" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" ht="18">
       <c r="A15" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2260,87 +2361,93 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" ht="18">
       <c r="A16" s="19" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" ht="36">
       <c r="A17" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2351,478 +2458,508 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Q17" s="16" t="s">
-        <v>119</v>
+        <v>127</v>
+      </c>
+      <c r="R17" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" ht="18">
       <c r="A18" s="19" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>123</v>
+        <v>132</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" ht="18">
       <c r="A19" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="18" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="O19" s="18" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="P19" s="22" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="23" t="s">
-        <v>132</v>
+        <v>141</v>
+      </c>
+      <c r="R19" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" ht="18">
       <c r="A20" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="16" t="s">
-        <v>139</v>
+        <v>148</v>
+      </c>
+      <c r="R20" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" ht="18">
       <c r="A21" s="19" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" ht="36">
       <c r="A22" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>147</v>
+        <v>158</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" ht="18">
       <c r="A23" s="2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="18" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>152</v>
+        <v>164</v>
+      </c>
+      <c r="R23" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="S23" s="17" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" ht="18">
       <c r="A24" s="2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="18" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>166</v>
+        <v>178</v>
+      </c>
+      <c r="R24" s="16" t="s">
+        <v>179</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" ht="36">
       <c r="A25" s="19" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>182</v>
+        <v>195</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="S25" s="17" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" ht="18">
       <c r="A26" s="2" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="18" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="P26" s="22" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="Q26" s="22" t="s">
-        <v>195</v>
+        <v>209</v>
+      </c>
+      <c r="R26" s="22" t="s">
+        <v>210</v>
       </c>
       <c r="S26" s="17" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" ht="18">
       <c r="A27" s="2" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2833,37 +2970,39 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="P27" s="16" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="Q27" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="R27" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="R27" s="16" t="s">
+        <v>218</v>
+      </c>
       <c r="S27" s="17" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" ht="18">
       <c r="A28" s="19" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
@@ -2874,37 +3013,39 @@
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R28" s="1"/>
+        <v>227</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="S28" s="17" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" ht="18">
       <c r="A29" s="2" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2915,36 +3056,39 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="P29" s="16" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="Q29" s="16" t="s">
-        <v>219</v>
+        <v>235</v>
+      </c>
+      <c r="R29" s="16" t="s">
+        <v>234</v>
       </c>
       <c r="S29" s="17" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" ht="18">
       <c r="A30" s="2" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2956,33 +3100,36 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>224</v>
+        <v>240</v>
+      </c>
+      <c r="R30" s="16" t="s">
+        <v>241</v>
       </c>
       <c r="S30" s="17" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" ht="18">
       <c r="A31" s="19" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
@@ -2994,33 +3141,36 @@
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
       <c r="L31" s="21" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="M31" s="21" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="N31" s="21" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>231</v>
+        <v>248</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="S31" s="17" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" ht="18">
       <c r="A32" s="2" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -3033,30 +3183,33 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="O32" s="22" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="P32" s="16" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="Q32" s="16" t="s">
-        <v>237</v>
+        <v>254</v>
+      </c>
+      <c r="R32" s="16" t="s">
+        <v>255</v>
       </c>
       <c r="S32" s="17" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" ht="18">
       <c r="A33" s="2" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -3071,24 +3224,27 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>242</v>
+        <v>260</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="S33" s="17" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" ht="18">
       <c r="A34" s="19" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
@@ -3103,63 +3259,67 @@
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>247</v>
+        <v>266</v>
+      </c>
+      <c r="R34" s="18" t="s">
+        <v>267</v>
       </c>
       <c r="S34" s="17" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" ht="18">
       <c r="A35" s="2" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="18" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="M35" s="16" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="N35" s="16"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
       <c r="S35" s="17" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" ht="18">
       <c r="A36" s="2" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3173,27 +3333,30 @@
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
       <c r="N36" s="16" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="P36" s="22" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="Q36" s="22" t="s">
-        <v>259</v>
+        <v>279</v>
+      </c>
+      <c r="R36" s="22" t="s">
+        <v>279</v>
       </c>
       <c r="S36" s="17" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" ht="18">
       <c r="A37" s="2" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -3207,27 +3370,30 @@
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
       <c r="N37" s="16" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="P37" s="22" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="Q37" s="22" t="s">
-        <v>263</v>
+        <v>283</v>
+      </c>
+      <c r="R37" s="22" t="s">
+        <v>283</v>
       </c>
       <c r="S37" s="17" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" ht="18">
       <c r="A38" s="2" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3241,27 +3407,30 @@
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
       <c r="N38" s="16" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="P38" s="22" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="Q38" s="22" t="s">
-        <v>266</v>
+        <v>286</v>
+      </c>
+      <c r="R38" s="22" t="s">
+        <v>286</v>
       </c>
       <c r="S38" s="17" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" ht="18">
       <c r="A39" s="2" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3275,27 +3444,30 @@
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
       <c r="N39" s="16" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="P39" s="22" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="Q39" s="22" t="s">
-        <v>270</v>
+        <v>290</v>
+      </c>
+      <c r="R39" s="22" t="s">
+        <v>290</v>
       </c>
       <c r="S39" s="17" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" ht="18">
       <c r="A40" s="2" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3309,31 +3481,34 @@
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
       <c r="N40" s="16" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="O40" s="16" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="P40" s="22" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="Q40" s="22" t="s">
-        <v>274</v>
+        <v>294</v>
+      </c>
+      <c r="R40" s="22" t="s">
+        <v>294</v>
       </c>
       <c r="S40" s="17" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" ht="18">
       <c r="A41" s="2" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
@@ -3347,496 +3522,526 @@
       <c r="N41" s="24"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
     </row>
     <row r="42" ht="18">
       <c r="A42" s="2" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="18" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>279</v>
+        <v>299</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="S42" s="17" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" ht="18">
       <c r="A43" s="19" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="K43" s="21" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="L43" s="21" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="M43" s="21" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="N43" s="21" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>284</v>
+        <v>303</v>
+      </c>
+      <c r="Q43" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="R43" s="16" t="s">
+        <v>304</v>
       </c>
       <c r="S43" s="17" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" ht="18">
       <c r="A44" s="2" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>289</v>
+        <v>309</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="S44" s="17" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" ht="18">
       <c r="A45" s="2" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>305</v>
+        <v>325</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>326</v>
       </c>
       <c r="S45" s="17" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" ht="18">
       <c r="A46" s="2" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="R46" s="1"/>
+        <v>339</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>339</v>
+      </c>
       <c r="S46" s="17" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" ht="54">
       <c r="A47" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M47" s="18" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="N47" s="16" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="P47" s="16" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="Q47" s="16" t="s">
-        <v>323</v>
+        <v>344</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>345</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" ht="18">
       <c r="A48" s="19" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
       <c r="G48" s="21" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="L48" s="21" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="M48" s="21" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="N48" s="21" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="O48" s="21" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>329</v>
+        <v>351</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="S48" s="17" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" ht="18">
       <c r="A49" s="2" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="N49" s="18" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>338</v>
+        <v>361</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
     </row>
     <row r="50" ht="18">
       <c r="A50" s="2" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>342</v>
+        <v>366</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="S50" s="17" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51" ht="18">
       <c r="A51" s="2" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>345</v>
+        <v>369</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>369</v>
       </c>
       <c r="S51" s="25" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/analyse-prix-composants.xlsx
+++ b/analyse-prix-composants.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuille1!$A:$Q</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuille1!$A:$S</definedName>
     <definedName name="Print_Titles" localSheetId="0">Feuille1!$7:$7</definedName>
   </definedNames>
   <calcPr/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="393">
   <si>
     <t xml:space="preserve">Le prix des composants IT</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">14 fev 2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 fev 2026</t>
   </si>
   <si>
     <t>URL</t>
@@ -131,6 +134,9 @@
     <t>366,90</t>
   </si>
   <si>
+    <t>366,27</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/dp/B07X19HT3S</t>
   </si>
   <si>
@@ -196,6 +202,9 @@
     <t>614,99</t>
   </si>
   <si>
+    <t>655,23</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/dp/B0BLTG7TN6</t>
   </si>
   <si>
@@ -233,6 +242,9 @@
     <t>822,25</t>
   </si>
   <si>
+    <t>794,32</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/Kingston-M%C3%A9moire-dordinateur-Portable-KF556S40IBK2-64/dp/B0BRTJT5P2</t>
   </si>
   <si>
@@ -269,6 +281,9 @@
     <t>575,98</t>
   </si>
   <si>
+    <t>479,00</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/ASUS-W680-ACE-LGA1700-4xDDR5-8xSATA/dp/B0BRYH3868</t>
   </si>
   <si>
@@ -305,6 +320,9 @@
     <t>1084,83</t>
   </si>
   <si>
+    <t>1426,57</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/PNY-Carte-Graphique-VCG4070S12DFXPB1-GDDR6X/dp/B0D363JYTH</t>
   </si>
   <si>
@@ -338,6 +356,9 @@
     <t>709,90</t>
   </si>
   <si>
+    <t>698,99</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/Gigabyte-GeForce-WINDFORCE-Carte-Graphique/dp/B0DTGP2WMT</t>
   </si>
   <si>
@@ -371,6 +392,9 @@
     <t>728,61</t>
   </si>
   <si>
+    <t>706,87</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/PNY-Carte-Graphique-GEFORCE-Triple/dp/B0F59N58GV</t>
   </si>
   <si>
@@ -389,6 +413,9 @@
     <t>9395,29</t>
   </si>
   <si>
+    <t>11230</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/PNY-NVIDIA-Blackwell-Max-Q-Workstation/dp/B0FW4XQD4Z</t>
   </si>
   <si>
@@ -476,6 +503,9 @@
     <t>208,97</t>
   </si>
   <si>
+    <t>212,09</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/PNY-Professionnelle-Mini-DisplayPort-Ventilateur-Silencieux/dp/B09RQBL7JP</t>
   </si>
   <si>
@@ -488,6 +518,9 @@
     <t>413</t>
   </si>
   <si>
+    <t>453,02</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/Nvidia-Quadro-T600-graphique-Single/dp/B0F2J9D8WV</t>
   </si>
   <si>
@@ -564,6 +597,9 @@
   </si>
   <si>
     <t>504,73</t>
+  </si>
+  <si>
+    <t>513,71</t>
   </si>
   <si>
     <t>https://www.amazon.fr/Western-Digital-Gold-16To-sATA/dp/B089S33PR3</t>
@@ -660,6 +696,9 @@
     <t>1398</t>
   </si>
   <si>
+    <t>1534,84</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/dp/B0C4BHC4MJ/ref=sr_aod_dp_ttl?th=1</t>
   </si>
   <si>
@@ -735,6 +774,9 @@
     <t>80,77</t>
   </si>
   <si>
+    <t>108</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/dp/B01N0TQPQB</t>
   </si>
   <si>
@@ -753,6 +795,9 @@
     <t>83,91</t>
   </si>
   <si>
+    <t>90,58</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/Kingston-SKC600-256G-Interne-Chiffrement/dp/B07ZDBZDR9</t>
   </si>
   <si>
@@ -774,6 +819,9 @@
     <t>111,43</t>
   </si>
   <si>
+    <t>132,33</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/Kingston-SKC600-512G-Interne-Chiffrement/dp/B07ZDBT15M</t>
   </si>
   <si>
@@ -795,6 +843,9 @@
     <t>257,87</t>
   </si>
   <si>
+    <t>239,99</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/Western-Digital-Rouge-SSD-SATA/dp/B07YFG3R5N</t>
   </si>
   <si>
@@ -813,6 +864,9 @@
     <t>152,50</t>
   </si>
   <si>
+    <t>148,87</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/SanDisk-Interne-Vitesse-Lecture-Ordinateur/dp/B0F4Y12GGN</t>
   </si>
   <si>
@@ -831,6 +885,9 @@
     <t>144</t>
   </si>
   <si>
+    <t>199,40</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/SanDisk-Ultra-SSD-jusqu%C3%A0-560/dp/B0B7VM4SRX</t>
   </si>
   <si>
@@ -972,6 +1029,9 @@
     <t>32,50</t>
   </si>
   <si>
+    <t>44,98</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/dp/B07GS6ZB7T</t>
   </si>
   <si>
@@ -1008,6 +1068,9 @@
     <t>36,41</t>
   </si>
   <si>
+    <t>36,53</t>
+  </si>
+  <si>
     <t>https://www.amazon.fr/dp/B00LI4O9EA</t>
   </si>
   <si>
@@ -1063,6 +1126,9 @@
   </si>
   <si>
     <t>1669,97</t>
+  </si>
+  <si>
+    <t>1669,76</t>
   </si>
   <si>
     <t>Dell</t>
@@ -1855,8 +1921,8 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="1"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1875,9 +1941,9 @@
     <col bestFit="1" min="13" max="13" style="4" width="13.00390625"/>
     <col bestFit="1" min="14" max="15" style="4" width="14.140625"/>
     <col customWidth="1" min="16" max="16" style="5" width="12.7109375"/>
-    <col customWidth="1" min="17" max="18" style="1" width="12.7109375"/>
-    <col min="19" max="19" style="0" width="9.140625"/>
-    <col min="20" max="16384" style="1" width="9.140625"/>
+    <col customWidth="1" min="17" max="19" style="1" width="12.7109375"/>
+    <col customWidth="1" min="20" max="20" style="0" width="42.28125"/>
+    <col min="21" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="33">
@@ -1888,7 +1954,8 @@
       <c r="N1" s="4"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
-      <c r="S1"/>
+      <c r="S1" s="5"/>
+      <c r="T1"/>
     </row>
     <row r="2" ht="23.25">
       <c r="A2" s="2"/>
@@ -1898,6 +1965,7 @@
       <c r="N2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
     </row>
     <row r="3" ht="18">
       <c r="A3" s="2"/>
@@ -1905,6 +1973,7 @@
       <c r="N3" s="4"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
     <row r="4" ht="54">
       <c r="A4" s="2"/>
@@ -1914,6 +1983,7 @@
       <c r="N4" s="4"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5" ht="23.25">
       <c r="A5" s="2"/>
@@ -1923,12 +1993,14 @@
       <c r="N5" s="4"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
     </row>
     <row r="6" ht="16.5">
       <c r="A6" s="2"/>
       <c r="N6" s="4"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
     </row>
     <row r="7" ht="18">
       <c r="A7" s="9" t="s">
@@ -1985,19 +2057,22 @@
       <c r="R7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="S7" s="11" t="s">
         <v>22</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" ht="36">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -2006,48 +2081,51 @@
         <v>284</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R8" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="S8" s="17" t="s">
         <v>36</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" ht="36">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="18">
@@ -2059,48 +2137,51 @@
         <v>686</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="S9" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" ht="36">
       <c r="A10" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="18">
@@ -2112,48 +2193,51 @@
         <v>403.11000000000001</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R10" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="S10" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="T10" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" ht="36">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2162,151 +2246,160 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="S11" s="17" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="T11" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12" ht="18">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="S12" s="17" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="S12" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" ht="36">
       <c r="A13" s="19" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="S13" s="17" t="s">
-        <v>93</v>
+        <v>32</v>
+      </c>
+      <c r="S13" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="T13" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="14" ht="18">
       <c r="A14" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2316,42 +2409,45 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="S14" s="17" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="S14" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="T14" s="17" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="15" ht="18">
       <c r="A15" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2361,93 +2457,99 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="S15" s="17" t="s">
-        <v>115</v>
+        <v>121</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="16" ht="18">
       <c r="A16" s="19" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="S16" s="17" t="s">
-        <v>121</v>
+        <v>128</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="T16" s="17" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="17" ht="36">
       <c r="A17" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2458,508 +2560,538 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Q17" s="16" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="S17" s="17" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="S17" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="T17" s="17" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="18" ht="18">
       <c r="A18" s="19" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="S18" s="17" t="s">
-        <v>133</v>
+        <v>141</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="T18" s="17" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="19" ht="18">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="18" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="O19" s="18" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="P19" s="22" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="Q19" s="23" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="R19" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="S19" s="17" t="s">
-        <v>142</v>
+        <v>150</v>
+      </c>
+      <c r="S19" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="T19" s="17" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="20" ht="18">
       <c r="A20" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="Q20" s="16" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="R20" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="S20" s="17" t="s">
-        <v>150</v>
+        <v>158</v>
+      </c>
+      <c r="S20" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="T20" s="17" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="21" ht="18">
       <c r="A21" s="19" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="S21" s="17" t="s">
-        <v>154</v>
+        <v>163</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="T21" s="17" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="22" ht="36">
       <c r="A22" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="S22" s="17" t="s">
-        <v>160</v>
+        <v>170</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="T22" s="17" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="23" ht="18">
       <c r="A23" s="2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="18" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="S23" s="17" t="s">
-        <v>169</v>
+        <v>179</v>
+      </c>
+      <c r="S23" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="T23" s="17" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="24" ht="18">
       <c r="A24" s="2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="18" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="R24" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="S24" s="17" t="s">
-        <v>180</v>
+        <v>190</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="T24" s="17" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="25" ht="36">
       <c r="A25" s="19" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="S25" s="17" t="s">
-        <v>197</v>
+        <v>208</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="T25" s="17" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="26" ht="18">
       <c r="A26" s="2" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="18" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="P26" s="22" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="Q26" s="22" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="R26" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="S26" s="17" t="s">
-        <v>211</v>
+        <v>222</v>
+      </c>
+      <c r="S26" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="T26" s="17" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="27" ht="18">
       <c r="A27" s="2" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2970,39 +3102,42 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="P27" s="16" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="Q27" s="16" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="R27" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="S27" s="17" t="s">
-        <v>219</v>
+        <v>231</v>
+      </c>
+      <c r="S27" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="T27" s="17" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="28" ht="18">
       <c r="A28" s="19" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
@@ -3013,39 +3148,42 @@
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="S28" s="17" t="s">
-        <v>229</v>
+        <v>241</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T28" s="17" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="29" ht="18">
       <c r="A29" s="2" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -3056,39 +3194,42 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="P29" s="16" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="Q29" s="16" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="R29" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="S29" s="17" t="s">
-        <v>236</v>
+        <v>247</v>
+      </c>
+      <c r="S29" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="T29" s="17" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="30" ht="18">
       <c r="A30" s="2" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -3100,36 +3241,39 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="R30" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="S30" s="17" t="s">
-        <v>242</v>
+        <v>255</v>
+      </c>
+      <c r="S30" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="T30" s="17" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="31" ht="18">
       <c r="A31" s="19" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
@@ -3141,36 +3285,39 @@
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
       <c r="L31" s="21" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="M31" s="21" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="N31" s="21" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="S31" s="17" t="s">
-        <v>249</v>
+        <v>263</v>
+      </c>
+      <c r="S31" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="T31" s="17" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="32" ht="18">
       <c r="A32" s="2" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -3183,33 +3330,36 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="O32" s="22" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="P32" s="16" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="Q32" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="R32" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="S32" s="17" t="s">
-        <v>256</v>
+        <v>270</v>
+      </c>
+      <c r="R32" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="S32" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="T32" s="17" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="33" ht="18">
       <c r="A33" s="2" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -3224,27 +3374,30 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="S33" s="17" t="s">
-        <v>262</v>
+        <v>278</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="T33" s="17" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="34" ht="18">
       <c r="A34" s="19" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
@@ -3258,68 +3411,72 @@
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
-      <c r="O34" s="21" t="s">
-        <v>264</v>
+      <c r="O34" s="22" t="s">
+        <v>282</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="R34" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="S34" s="17" t="s">
-        <v>268</v>
+        <v>285</v>
+      </c>
+      <c r="S34" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="T34" s="17" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="35" ht="18">
       <c r="A35" s="2" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="18" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="M35" s="16" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="N35" s="16"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
-      <c r="S35" s="17" t="s">
-        <v>275</v>
+      <c r="S35" s="4"/>
+      <c r="T35" s="17" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="36" ht="18">
       <c r="A36" s="2" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3333,30 +3490,33 @@
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
       <c r="N36" s="16" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="P36" s="22" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="Q36" s="22" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="R36" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="S36" s="17" t="s">
-        <v>280</v>
+        <v>298</v>
+      </c>
+      <c r="S36" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="T36" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="37" ht="18">
       <c r="A37" s="2" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -3370,30 +3530,33 @@
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
       <c r="N37" s="16" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="P37" s="22" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="Q37" s="22" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="R37" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="S37" s="17" t="s">
-        <v>280</v>
+        <v>302</v>
+      </c>
+      <c r="S37" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="T37" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="38" ht="18">
       <c r="A38" s="2" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3407,30 +3570,33 @@
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
       <c r="N38" s="16" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="P38" s="22" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="Q38" s="22" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="R38" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="S38" s="17" t="s">
-        <v>280</v>
+        <v>305</v>
+      </c>
+      <c r="S38" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="T38" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="39" ht="18">
       <c r="A39" s="2" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3444,30 +3610,33 @@
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
       <c r="N39" s="16" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="P39" s="22" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="Q39" s="22" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="R39" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="S39" s="17" t="s">
-        <v>280</v>
+        <v>309</v>
+      </c>
+      <c r="S39" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="T39" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="40" ht="18">
       <c r="A40" s="2" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3481,34 +3650,37 @@
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
       <c r="N40" s="16" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="O40" s="16" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="P40" s="22" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="Q40" s="22" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="R40" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="S40" s="17" t="s">
-        <v>280</v>
+        <v>313</v>
+      </c>
+      <c r="S40" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="T40" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="41" ht="18">
       <c r="A41" s="2" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
@@ -3523,575 +3695,606 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
     </row>
     <row r="42" ht="18">
       <c r="A42" s="2" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="18" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="S42" s="17" t="s">
-        <v>300</v>
+        <v>318</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="T42" s="17" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="43" ht="18">
       <c r="A43" s="19" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="K43" s="21" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="L43" s="21" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="M43" s="21" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="N43" s="21" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="Q43" s="16" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="R43" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="S43" s="17" t="s">
-        <v>305</v>
+        <v>323</v>
+      </c>
+      <c r="S43" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="T43" s="17" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="44" ht="18">
       <c r="A44" s="2" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="R44" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="S44" s="17" t="s">
-        <v>315</v>
+        <v>328</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="T44" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="45" ht="18">
       <c r="A45" s="2" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="S45" s="17" t="s">
-        <v>327</v>
+        <v>346</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="T45" s="17" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="46" ht="18">
       <c r="A46" s="2" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="S46" s="17" t="s">
-        <v>340</v>
+        <v>360</v>
+      </c>
+      <c r="S46" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="T46" s="17" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="47" ht="54">
       <c r="A47" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M47" s="18" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="N47" s="16" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="P47" s="16" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="Q47" s="16" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>346</v>
+        <v>366</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="48" ht="18">
       <c r="A48" s="19" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
       <c r="G48" s="21" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="L48" s="21" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="M48" s="21" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="N48" s="21" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="O48" s="21" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="S48" s="17" t="s">
-        <v>353</v>
+        <v>374</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="T48" s="17" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="49" ht="18">
       <c r="A49" s="2" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="N49" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="O49" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="P49" s="4" t="s">
-        <v>357</v>
+        <v>381</v>
+      </c>
+      <c r="N49" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="O49" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="P49" s="16" t="s">
+        <v>379</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>363</v>
+        <v>384</v>
+      </c>
+      <c r="S49" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="50" ht="18">
       <c r="A50" s="2" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="S50" s="17" t="s">
-        <v>367</v>
+        <v>388</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="T50" s="17" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="51" ht="18">
       <c r="A51" s="2" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="S51" s="25" t="s">
-        <v>370</v>
+        <v>391</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="T51" s="25" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B5"/>
-    <hyperlink r:id="rId2" ref="S8"/>
-    <hyperlink r:id="rId3" ref="S9"/>
-    <hyperlink r:id="rId4" ref="S10"/>
-    <hyperlink r:id="rId5" ref="S11"/>
-    <hyperlink r:id="rId6" ref="S12"/>
-    <hyperlink r:id="rId7" ref="S13"/>
-    <hyperlink r:id="rId8" ref="S14"/>
-    <hyperlink r:id="rId9" ref="S15"/>
-    <hyperlink r:id="rId10" ref="S16"/>
-    <hyperlink r:id="rId11" ref="S17"/>
-    <hyperlink r:id="rId12" ref="S18"/>
-    <hyperlink r:id="rId13" ref="S19"/>
-    <hyperlink r:id="rId14" ref="S20"/>
-    <hyperlink r:id="rId15" ref="S21"/>
-    <hyperlink r:id="rId16" ref="S22"/>
-    <hyperlink r:id="rId17" ref="S23"/>
-    <hyperlink r:id="rId18" ref="S24"/>
-    <hyperlink r:id="rId19" ref="S25"/>
-    <hyperlink r:id="rId20" ref="S26"/>
-    <hyperlink r:id="rId21" ref="S27"/>
-    <hyperlink r:id="rId22" ref="S28"/>
-    <hyperlink r:id="rId23" ref="S29"/>
-    <hyperlink r:id="rId24" ref="S30"/>
-    <hyperlink r:id="rId25" ref="S31"/>
-    <hyperlink r:id="rId26" ref="S32"/>
-    <hyperlink r:id="rId27" ref="S33"/>
-    <hyperlink r:id="rId28" ref="S34"/>
-    <hyperlink r:id="rId29" ref="S35"/>
-    <hyperlink r:id="rId30" ref="S36"/>
-    <hyperlink r:id="rId30" ref="S37"/>
-    <hyperlink r:id="rId30" ref="S38"/>
-    <hyperlink r:id="rId30" ref="S39"/>
-    <hyperlink r:id="rId30" ref="S40"/>
-    <hyperlink r:id="rId31" ref="S42"/>
-    <hyperlink r:id="rId32" ref="S43"/>
-    <hyperlink r:id="rId33" ref="S44"/>
-    <hyperlink r:id="rId34" ref="S45"/>
-    <hyperlink r:id="rId35" ref="S46"/>
-    <hyperlink r:id="rId36" ref="S48"/>
-    <hyperlink r:id="rId37" ref="S50"/>
-    <hyperlink r:id="rId38" ref="S51"/>
+    <hyperlink r:id="rId2" ref="T8"/>
+    <hyperlink r:id="rId3" ref="T9"/>
+    <hyperlink r:id="rId4" ref="T10"/>
+    <hyperlink r:id="rId5" ref="T11"/>
+    <hyperlink r:id="rId6" ref="T12"/>
+    <hyperlink r:id="rId7" ref="T13"/>
+    <hyperlink r:id="rId8" ref="T14"/>
+    <hyperlink r:id="rId9" ref="T15"/>
+    <hyperlink r:id="rId10" ref="T16"/>
+    <hyperlink r:id="rId11" ref="T17"/>
+    <hyperlink r:id="rId12" ref="T18"/>
+    <hyperlink r:id="rId13" ref="T19"/>
+    <hyperlink r:id="rId14" ref="T20"/>
+    <hyperlink r:id="rId15" ref="T21"/>
+    <hyperlink r:id="rId16" ref="T22"/>
+    <hyperlink r:id="rId17" ref="T23"/>
+    <hyperlink r:id="rId18" ref="T24"/>
+    <hyperlink r:id="rId19" ref="T25"/>
+    <hyperlink r:id="rId20" ref="T26"/>
+    <hyperlink r:id="rId21" ref="T27"/>
+    <hyperlink r:id="rId22" ref="T28"/>
+    <hyperlink r:id="rId23" ref="T29"/>
+    <hyperlink r:id="rId24" ref="T30"/>
+    <hyperlink r:id="rId25" ref="T31"/>
+    <hyperlink r:id="rId26" ref="T32"/>
+    <hyperlink r:id="rId27" ref="T33"/>
+    <hyperlink r:id="rId28" ref="T34"/>
+    <hyperlink r:id="rId29" ref="T35"/>
+    <hyperlink r:id="rId30" ref="T36"/>
+    <hyperlink r:id="rId30" ref="T37"/>
+    <hyperlink r:id="rId30" ref="T38"/>
+    <hyperlink r:id="rId30" ref="T39"/>
+    <hyperlink r:id="rId30" ref="T40"/>
+    <hyperlink r:id="rId31" ref="T42"/>
+    <hyperlink r:id="rId32" ref="T43"/>
+    <hyperlink r:id="rId33" ref="T44"/>
+    <hyperlink r:id="rId34" ref="T45"/>
+    <hyperlink r:id="rId35" ref="T46"/>
+    <hyperlink r:id="rId36" ref="T48"/>
+    <hyperlink r:id="rId37" ref="T50"/>
+    <hyperlink r:id="rId38" ref="T51"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="52" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="47" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>